--- a/Results for Product Designer.xlsx
+++ b/Results for Product Designer.xlsx
@@ -365,7 +365,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K140"/>
+  <dimension ref="A1:K176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,7 +454,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="J2" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="3">
@@ -503,7 +503,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -517,10 +517,10 @@
         </is>
       </c>
       <c r="J3" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="4">
@@ -532,32 +532,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Lead Product Designer</t>
+          <t>Instructional Designer</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Softvision</t>
+          <t>University of Miami</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Engage in the client’s product vision by researching, conceiving, sketching, prototyping and user-testing experiences for digital products.</t>
+          <t>Visualizes instructional graphics, the user interface and the finished product.Works with subject matter experts, conducts needs assessments and analysis to…</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Coral Gables, FL</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=01ea2a27dc785c21&amp;fccid=bc6d68ab22143afb&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=3291e696df7e6396&amp;fccid=ec40e650131b4ee3&amp;vjs=3</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="J4" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="5">
@@ -581,32 +581,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Special Event Designer (Corporate)- Boca By Design</t>
+          <t>Lead Product Designer</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Waldorf Astoria Hotels &amp; Resorts</t>
+          <t>Softvision</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Follow up with Purchasing Agent and Vendors concerned with specific product needed for proposals.The Boca by Design Team is seeking a Special Event Designer!</t>
+          <t>Engage in the client’s product vision by researching, conceiving, sketching, prototyping and user-testing experiences for digital products.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Boca Raton, FL 33432</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=a82fa8faff71ce53&amp;fccid=55e068e3b5b21a45&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=01ea2a27dc785c21&amp;fccid=bc6d68ab22143afb&amp;vjs=3</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -615,10 +615,10 @@
         </is>
       </c>
       <c r="J5" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K5" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="6">
@@ -630,32 +630,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Optical Stylist, South Beach, Miami, FL</t>
+          <t>WAREHOUSE ASSOCIATE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SEE Eyewear</t>
+          <t>Emser Tile</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SEE Eyewear is addicted to uncovering hidden gems-and not just within our product assortment.Keep up to date on SEE Product Knowledge and share it with every…</t>
+          <t>Cut and place product materials to create displays that accurately represent product variation.Ability to accurately count/track product that is being received…</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Miami Beach, FL 33139</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>6 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=15b0e366e1d30191&amp;fccid=934f3ebc23a9b17c&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=78180f6ef1662d6b&amp;fccid=badbfaf432b3c56c&amp;vjs=3</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -664,10 +664,10 @@
         </is>
       </c>
       <c r="J6" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K6" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="7">
@@ -679,32 +679,32 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Magnolia Design Center System Designer</t>
+          <t>UX Designer</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Best Buy</t>
+          <t>ThrottleWeb</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>The System Designer builds and manages relationships with builders, architects, interior designers and local Best Buy stores.High School Diploma or equivalent.</t>
+          <t>Work as a design lead on projects and will be expected to act as the user advocate throughout the product development lifecycle.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Miami, FL 33143</t>
+          <t>Hallandale Beach, FL</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Today·Save </t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=17c5e1e6f139da46&amp;fccid=027d7cca25a5d14f&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=b3d99658f764fc98&amp;fccid=47890e5bc77c84e4&amp;vjs=3</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="J7" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K7" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="8">
@@ -728,32 +728,32 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Lead UX Designer</t>
+          <t>Copywriter</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SoftVision - North America &amp; UK</t>
+          <t>Miami Marlins</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Engage in the client’s product vision by researching, conceiving, sketching, prototyping and user-testing experiences for digital products.</t>
+          <t>Work with designers, illustrators, printers, photographers and production team to complete campaigns.The copywriter will execute against strategies using his…</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Miami, FL 33132 (Downtown area)</t>
+          <t>Miami, FL 33125 (Flagami area)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>7 days ago·</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=88df77378b4b1885&amp;fccid=df18c67b03f6bbd9&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=0417c79162ce5d45&amp;fccid=ca039b2a955ffd3f&amp;vjs=3</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="J8" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K8" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="9">
@@ -777,17 +777,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Lead UX Designer</t>
+          <t>Retail Field Trainer</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Softvision</t>
+          <t>Sally Beauty Holdings</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Engage in the client’s product vision by researching, conceiving, sketching, prototyping and user-testing experiences for digital products.</t>
+          <t>Enthusiasm for the beauty industry and its products.Models effective customer service behavior that develops the team to help customers make decisions about…</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -797,12 +797,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>7 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=821a32dbbdeb138d&amp;fccid=bc6d68ab22143afb&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=7e887fa656d509e5&amp;fccid=1bd4e638720fd660&amp;vjs=3</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="J9" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K9" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="10">
@@ -826,32 +826,32 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>eCommerce Project Manager</t>
+          <t>Information Architect</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>OnPoint</t>
+          <t>Interval International</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Coordinate that all domains deliver valuable products to the customers (guides, added value products, agency services).</t>
+          <t>Work with internal team to continually refine and update interactive products.Exceptional verbal and written communication skills and must be able to…</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Miami, FL 33169</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2 days ago·</t>
+          <t>ILG·Today·S</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=60953bd9c307b325&amp;fccid=8524d30bbfaa4720&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=ce0bf89fa2cdb4ac&amp;fccid=6e1474abb3491689&amp;vjs=3</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -860,10 +860,10 @@
         </is>
       </c>
       <c r="J10" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K10" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="11">
@@ -875,32 +875,32 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Part-time Vintage Luxury Consultant (LV, Gucci, Chanel)</t>
+          <t>Special Event Designer (Corporate)- Boca By Design</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Stein Mart</t>
+          <t>Waldorf Astoria Hotels &amp; Resorts</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>In this position you will promote a high-performance selling culture by inspiring customers and creating new stories and new life in each product.</t>
+          <t>Follow up with Purchasing Agent and Vendors concerned with specific product needed for proposals.The Boca by Design Team is seeking a Special Event Designer!</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Boca Raton, FL 33434</t>
+          <t>Boca Raton, FL 33432</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>6 days ago·</t>
+          <t>Hilton·5 da</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=8a0667720a3d7d4c&amp;fccid=30b812250949682b&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=a82fa8faff71ce53&amp;fccid=55e068e3b5b21a45&amp;vjs=3</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -909,10 +909,10 @@
         </is>
       </c>
       <c r="J11" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K11" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="12">
@@ -924,22 +924,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Luxury Brand Commission Sales Professional - New View Women'...</t>
+          <t>Magnolia Design Center System Designer</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Bloomingdale's</t>
+          <t>Best Buy</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Expert on product knowledge, understanding features and benefits and sharing with clients.Demonstrate knowledge of store products and services to build sales…</t>
+          <t>The System Designer builds and manages relationships with builders, architects, interior designers and local Best Buy stores.High School Diploma or equivalent.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Aventura, FL 33180</t>
+          <t>Miami, FL 33143</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -949,7 +949,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=f7cc5f77b62db329&amp;fccid=5e6dd49bdb583f94&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=17c5e1e6f139da46&amp;fccid=027d7cca25a5d14f&amp;vjs=3</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -958,10 +958,10 @@
         </is>
       </c>
       <c r="J12" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K12" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="13">
@@ -973,32 +973,32 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Tailor, Full Time- Aventura, FL</t>
+          <t>ARRC Coordinator</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Brooks Brothers Group, Inc</t>
+          <t>The TJX Companies, Inc.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Tailor our luxurious products to our client’s specifications on state of the art equipment.Minimum of 5 years of store tailoring experience, preferably in…</t>
+          <t>Posting Notes: TJ Maxx Store 4106 || 2100 NW 97th AVE || Doral || FL || 33172.Executes the timely processing of inventory, assets and recyclable, utilizing the…</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Aventura, FL 33180</t>
+          <t>Doral, FL</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=c4c766b3be284f53&amp;fccid=22459122a7f9293e&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=681544049b3de7db&amp;fccid=56f3f08c4fc3ba79&amp;vjs=3</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1007,10 +1007,10 @@
         </is>
       </c>
       <c r="J13" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K13" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="14">
@@ -1022,32 +1022,32 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Senior Industrial Designer</t>
+          <t>Sr. Email Designer</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Motorola Solutions</t>
+          <t>Office Depot OfficeMax</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Collaborate with senior designers and mentors across disciplines.Our primary customer base includes Public Safety, Enterprise, and Business- products include…</t>
+          <t>Onboard new designers and introduce new Analysts to design process.We’re looking for a Senior Designer with strong production skills who understands the world…</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Plantation, FL</t>
+          <t>Boca Raton, FL 33496</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=9e5451092f6309ea&amp;fccid=22ec6ef3cc441ac2&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=31c01dd3012a3df6&amp;fccid=31ca68f7796cd983&amp;vjs=3</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="J14" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K14" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="15">
@@ -1071,32 +1071,32 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Copywriter</t>
+          <t>Creative Technologies Manager</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Miami Marlins</t>
+          <t>Chewy</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Work with designers, illustrators, printers, photographers and production team to complete campaigns.The copywriter will execute against strategies using his…</t>
+          <t>Assistant Editors, Editors, Motion Graphics Designers, Audio Engineers, Colorists, and Coordinators.Primary systems administrator and Studio product owner for…</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Miami, FL 33125 (Flagami area)</t>
+          <t>Fort Lauderdale, FL 33316 (Harbordale area)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t>Just posted</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=0417c79162ce5d45&amp;fccid=ca039b2a955ffd3f&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=adf45217672594aa&amp;fccid=b6add0e6a71f1008&amp;vjs=3</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1105,10 +1105,10 @@
         </is>
       </c>
       <c r="J15" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K15" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="16">
@@ -1120,32 +1120,32 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Marketing Associate - Digital Focus</t>
+          <t>Multimedia Producer</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Kalorik</t>
+          <t>Univision communications inc</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Proficient in Microsoft Office products and other databases.Support team with product, pricing and competitor research as necessary.</t>
+          <t>Work closely with editors, graphic artists and sound designers to ensure that final product is executed flawlessly.Strong attention to detail is a must.</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Miami Gardens, FL 33169</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=b8a3716988c24be9&amp;fccid=b1884a48dc6ddf96&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=260c04f3f1eedc93&amp;fccid=a94ccb35abbf24d8&amp;vjs=3</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1154,10 +1154,10 @@
         </is>
       </c>
       <c r="J16" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K16" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="17">
@@ -1169,32 +1169,32 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Junior Graphic Designer</t>
+          <t>eCommerce Project Manager</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Holiday Diver Inc</t>
+          <t>OnPoint</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>This role may expand to include product photography, Amazon SEO, content writing, and video editing.The Graphic Designer is responsible for developing the…</t>
+          <t>Coordinate that all domains deliver valuable products to the customers (guides, added value products, agency services).</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Dania Beach, FL</t>
+          <t>Miami, FL 33169</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t>4 days ago·</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=16cde9f2f47ae3d4&amp;fccid=5df23702b8e32442&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=60953bd9c307b325&amp;fccid=8524d30bbfaa4720&amp;vjs=3</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1203,10 +1203,10 @@
         </is>
       </c>
       <c r="J17" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K17" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="18">
@@ -1218,32 +1218,32 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Jr. Marketing Graphic Designer</t>
+          <t>Sr. Producer</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SmartProcure-GovSpend</t>
+          <t>Univision communications inc</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>The Junior Marketing Graphic Designer will primarily be responsible for editing and redesigning graphics, working with our sales team, creating marketing…</t>
+          <t>Know our audience, our product, and how to bridge them.Skilled Graphic Designer / Must master After Effects and other Adobe Creative Cloud apps.</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Deerfield Beach, FL 33441</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=138e8ca63c752259&amp;fccid=3e7cb066ac438b70&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=e24c8b2cb1b04074&amp;fccid=a94ccb35abbf24d8&amp;vjs=3</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1252,10 +1252,10 @@
         </is>
       </c>
       <c r="J18" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K18" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="19">
@@ -1267,32 +1267,32 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Instructional Designer</t>
+          <t>Tailor, Full Time- Aventura, FL</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>University of Miami</t>
+          <t>Brooks Brothers Group, Inc</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>States instructional end goals and creates content that matches them Visualizes instructional graphics, the user interface and the finished product.</t>
+          <t>Tailor our luxurious products to our client’s specifications on state of the art equipment.Minimum of 5 years of store tailoring experience, preferably in…</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Coral Gables, FL</t>
+          <t>Aventura, FL 33180</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t>4 days ago·</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=33185f8fa9a572bf&amp;fccid=ec40e650131b4ee3&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=c4c766b3be284f53&amp;fccid=22459122a7f9293e&amp;vjs=3</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1301,10 +1301,10 @@
         </is>
       </c>
       <c r="J19" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K19" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="20">
@@ -1316,32 +1316,32 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Merchandise Associate</t>
+          <t>Junior Graphic Designer</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>The TJX Companies, Inc.</t>
+          <t>Holiday Diver Inc</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>From designers straight off the runway to statement jewelry, we offer exciting surprises that make the everyday a little more fun.</t>
+          <t>This role may expand to include product photography, Amazon SEO, content writing, and video editing.The Graphic Designer is responsible for developing the…</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Fort Lauderdale, FL</t>
+          <t>Dania Beach, FL</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=ba303f072b164464&amp;fccid=56f3f08c4fc3ba79&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=16cde9f2f47ae3d4&amp;fccid=5df23702b8e32442&amp;vjs=3</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1350,10 +1350,10 @@
         </is>
       </c>
       <c r="J20" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K20" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="21">
@@ -1365,22 +1365,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Lead, Copywriter + Content</t>
+          <t>Marketing Associate - Digital Focus</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Celebrity Cruises, Inc.</t>
+          <t>Kalorik</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Clear and concise communication, commitment to producing quality product;Partners with Graphic Designer on a daily basis to ensure design and copy complement…</t>
+          <t>Proficient in Microsoft Office products and other databases.Support team with product, pricing and competitor research as necessary.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Miami Gardens, FL 33169</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1390,7 +1390,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=025d025c19e1aa45&amp;fccid=d0c4da8d25baf0bd&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=b8a3716988c24be9&amp;fccid=b1884a48dc6ddf96&amp;vjs=3</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1399,10 +1399,10 @@
         </is>
       </c>
       <c r="J21" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K21" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="22">
@@ -1414,32 +1414,32 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Mechanical Engineer</t>
+          <t>Lead, Copywriter + Content</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Ford Motor Company</t>
+          <t>Celebrity Cruises, Inc.</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2+ years of experience in a product design environment.Perform Mechanical and Environmental Validation Testing on products under development.</t>
+          <t>Meticulous attention to detail; clear and concise communication, commitment to producing quality product; deadline conscious.Performs other duties as required.</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Sunrise, FL</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>Royal Carib</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=55e09c7f933ec2d4&amp;fccid=761c44c17d636bfe&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=025d025c19e1aa45&amp;fccid=d0c4da8d25baf0bd&amp;vjs=3</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="J22" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K22" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="23">
@@ -1463,22 +1463,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Territory Sales Representative - Wood Coatings Specialist, D...</t>
+          <t>Marketing Associate</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Richelieu Hardware</t>
+          <t>Liberty Power</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>You will successfully manage the sales of Richelieu’s Wood Finishing product solutions (paints, stains, lacquers, abrasives, etc.).What We Are Looking For.</t>
+          <t>Manage relationships with outside graphic designers to ensure deliverables are on brand, meet quality standards and are delivered on time within budget.</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Fort Lauderdale, FL 33309</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=e5f6c489c0183bcf&amp;fccid=c2747b3891936d1b&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=c48bce5f54280a20&amp;fccid=a8a6c6063f6af40d&amp;vjs=3</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1497,10 +1497,10 @@
         </is>
       </c>
       <c r="J23" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K23" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="24">
@@ -1512,32 +1512,32 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Kids Bible App Digital Content Project Manager</t>
+          <t>Merchandise Associate</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>OneHope, Inc</t>
+          <t>The TJX Companies, Inc.</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>OneHope's Product Development team designs products that engage children and youth around the world with Scripture.Vice President of Product Development.</t>
+          <t>Posting Notes: TJ Maxx Store 0710 || 3812 West Hillsboro Boulevard || Deerfield Beach || FL || 33442.Responsible for delivering a highly satisfied customer…</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Pompano Beach, FL 33060</t>
+          <t>+1 location</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>6 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=8664f41ef4002187&amp;fccid=0add057d030238a3&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=fbb128083d2baeeb&amp;fccid=56f3f08c4fc3ba79&amp;vjs=3</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="J24" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K24" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="25">
@@ -1561,32 +1561,32 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Senior Marketing Manager</t>
+          <t>Product Developer Apprenticeship</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>St Thomas University</t>
+          <t>T R I M</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Oversee the creation, design and execution of all graphic design and content marketing materials in-house for website, industry media, social media,…</t>
+          <t>Apprentices receive hands-on training, work side-by-side with T R I M engineers and product designers, and gain experience in all aspects of agile software…</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Miami Gardens, FL 33054</t>
+          <t>Fort Lauderdale, FL</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2 days ago·</t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=2d39ef984ccff422&amp;fccid=ac5f41cdab296eb6&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=2eee9518e5c2c461&amp;fccid=ac03badfdc09d467&amp;vjs=3</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1595,10 +1595,10 @@
         </is>
       </c>
       <c r="J25" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K25" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="26">
@@ -1610,32 +1610,32 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Marketing Associate</t>
+          <t>Luxury Brand Commission Sales Professional - New View Women'...</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Liberty Power</t>
+          <t>Bloomingdale's</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Manage relationships with outside graphic designers to ensure deliverables are on brand, meet quality standards and are delivered on time within budget.</t>
+          <t>Expert on product knowledge, understanding features and benefits and sharing with clients.Demonstrate knowledge of store products and services to build sales…</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Fort Lauderdale, FL 33309</t>
+          <t>Aventura, FL 33180</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>Macy's·3 da</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=c48bce5f54280a20&amp;fccid=a8a6c6063f6af40d&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=f7cc5f77b62db329&amp;fccid=5e6dd49bdb583f94&amp;vjs=3</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1644,10 +1644,10 @@
         </is>
       </c>
       <c r="J26" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K26" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="27">
@@ -1659,32 +1659,32 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Apprenticeship</t>
+          <t>Client Administrative Support</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>T R I M</t>
+          <t>Sixt Rent A Car</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Apprentices receive hands-on training, work side-by-side with T R I M engineers and product designers, and gain experience in all aspects of agile software…</t>
+          <t>Serve as an expert in our products and services.Must be willing to wear company uniforms…they’re actually designer clothes!What you’ll do to be sixt-cessful:</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Fort Lauderdale, FL</t>
+          <t>Fort Lauderdale, FL 33316 (Harbordale area)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>7 days ago·</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=2eee9518e5c2c461&amp;fccid=ac03badfdc09d467&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=ac387e52f793a5e2&amp;fccid=773e912547e8138e&amp;vjs=3</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1693,10 +1693,10 @@
         </is>
       </c>
       <c r="J27" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K27" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="28">
@@ -1708,32 +1708,32 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>TECHNICAL WRITER</t>
+          <t>Senior Marketing Manager</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Sonnys Enterprises Inc</t>
+          <t>St Thomas University</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Collects and interprets technical data or information from customers, designers and manufacturers.Contribute to the definition of tasks and required resources…</t>
+          <t>Oversee the creation, design and execution of all graphic design and content marketing materials in-house for website, industry media, social media,…</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tamarac, FL 33321</t>
+          <t>Miami Gardens, FL 33054</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>6 days ago·</t>
+          <t>4 days ago·</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=e51a47eed38d83d1&amp;fccid=4d2d77ca55e4a7eb&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=2d39ef984ccff422&amp;fccid=ac5f41cdab296eb6&amp;vjs=3</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1742,10 +1742,10 @@
         </is>
       </c>
       <c r="J28" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K28" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="29">
@@ -1757,32 +1757,32 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Store Manager, Miami</t>
+          <t>Part Time Designer Handbag Sales Associate - Draw Vs Commiss...</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>OTB</t>
+          <t>Neiman Marcus</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Maison Margiela is a Paris-based fashion house founded in 1988 by Belgian designer Martin Margiela.Conduct daily/weekly/monthly analysis of business and…</t>
+          <t>Recommends merchandise based on expert product knowledge and client preferences, regardless of department or channel.Cultivate and grow client base.</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Miami Beach, FL</t>
+          <t>Fort Lauderdale, FL</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>6 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=f57caed0e7c2f6b7&amp;fccid=7a6f24c0980e860f&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=c0ee19ab6466e512&amp;fccid=7a11eee3ff8b533d&amp;vjs=3</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1791,10 +1791,10 @@
         </is>
       </c>
       <c r="J29" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K29" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="30">
@@ -1806,32 +1806,32 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Sr. Email Designer</t>
+          <t>Designer II Part Time Sales Associate - Draw Vs Commission</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Office Depot OfficeMax</t>
+          <t>Neiman Marcus</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Onboard new designers and introduce new Analysts to design process.We’re looking for a Senior Designer with strong production skills who understands the world…</t>
+          <t>Recommends merchandise based on expert product knowledge and client preferences, regardless of department or channel.Cultivate and grow client base.</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Boca Raton, FL 33496</t>
+          <t>Fort Lauderdale, FL</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Just posted</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=31c01dd3012a3df6&amp;fccid=31ca68f7796cd983&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=1a71eed80b29b50e&amp;fccid=7a11eee3ff8b533d&amp;vjs=3</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1840,10 +1840,10 @@
         </is>
       </c>
       <c r="J30" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K30" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="31">
@@ -1855,32 +1855,32 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Assoc Store Mgr NE NC</t>
+          <t>Mechanical Engineer</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Intermix</t>
+          <t>Ford Motor Company</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>We’re all about delighting our customers by helping them to discover trends, designers and notably special pieces.Provide clear feedback and regular coaching.</t>
+          <t>2+ years of experience in a product design environment.Perform Mechanical and Environmental Validation Testing on products under development.</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Boca Raton, FL 33481</t>
+          <t>Sunrise, FL</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>4 days ago·</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=e065b27e9caa144c&amp;fccid=0d9e0f3b0c8f3c5a&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=55e09c7f933ec2d4&amp;fccid=761c44c17d636bfe&amp;vjs=3</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1889,10 +1889,10 @@
         </is>
       </c>
       <c r="J31" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K31" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="32">
@@ -1904,32 +1904,32 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Client Administrative Support</t>
+          <t>AUTOMATED TEST EQUIPMENT SALES MANAGER</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Sixt Rent a Car, LLC.</t>
+          <t>CHROMA SYSTEMS SOLUTIONS INC</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Serve as an expert in our products and services.Must be willing to wear company uniforms…they’re actually designer clothes!What you’ll do to be sixt-cessful:</t>
+          <t>Identifying key accounts and market requirements; identifying trends, threats and opportunities for product improvement.Reports To: Director of ATE Sales.</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Fort Lauderdale, FL 33316 (Harbordale area)</t>
+          <t>Miami, FL 33101 (Overtown area)</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=3380e4b9927bc9e6&amp;fccid=fa1d1e8b4e65c70a&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=39135e3e238bf962&amp;fccid=3393d664c9d37b5f&amp;vjs=3</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -1938,10 +1938,10 @@
         </is>
       </c>
       <c r="J32" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K32" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="33">
@@ -1953,32 +1953,32 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Software Developer</t>
+          <t>Lead Installer, Magnolia Custom</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Selmer Demo</t>
+          <t>Best Buy</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Working closely with other developers, UX designers, business and systems analysts.A Java, C#, .Net, C, Sybase and Oracle Software Developer is generally…</t>
+          <t>You will need to meet the Magnolia standard of excellence in device mounting, cable management, power management and functionality of audio products.</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Fort Lauderdale, FL</t>
+          <t>Boca Raton, FL 33498</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=b4a4119579df4ad5&amp;fccid=7abf1052483dbe25&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=41a2acce13813002&amp;fccid=027d7cca25a5d14f&amp;vjs=3</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -1987,10 +1987,10 @@
         </is>
       </c>
       <c r="J33" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K33" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="34">
@@ -1998,7 +1998,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2036,10 +2036,10 @@
         </is>
       </c>
       <c r="J34" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K34" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="35">
@@ -2047,36 +2047,36 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Senior Transportation Project Manager</t>
+          <t>Back-End Engineer</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>WSP USA</t>
+          <t>T R I M</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Roadway design experience or experience working closely with civil designers.Supervise, lead, and mentor mid-level and Junior staff -Lead teams of WSP staff…</t>
+          <t>T R I M Agency is seeking a Backend Engineer to join our startup studio.The ideal candidate will not only love to code, but love to see companies grow from…</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Fort Lauderdale, FL</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=0efb4df38d92e1ad&amp;fccid=0c9fc109eb8096e4&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=f06b9fa71264d3f8&amp;fccid=ac03badfdc09d467&amp;vjs=3</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2085,10 +2085,10 @@
         </is>
       </c>
       <c r="J35" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K35" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="36">
@@ -2096,7 +2096,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2134,10 +2134,10 @@
         </is>
       </c>
       <c r="J36" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K36" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="37">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2183,10 +2183,10 @@
         </is>
       </c>
       <c r="J37" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K37" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="38">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2232,10 +2232,10 @@
         </is>
       </c>
       <c r="J38" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K38" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="39">
@@ -2247,32 +2247,32 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Lead Product Designer</t>
+          <t>Instructional Designer</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Softvision</t>
+          <t>University of Miami</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Engage in the client’s product vision by researching, conceiving, sketching, prototyping and user-testing experiences for digital products.</t>
+          <t>Visualizes instructional graphics, the user interface and the finished product.Works with subject matter experts, conducts needs assessments and analysis to…</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Coral Gables, FL</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=01ea2a27dc785c21&amp;fccid=bc6d68ab22143afb&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=3291e696df7e6396&amp;fccid=ec40e650131b4ee3&amp;vjs=3</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2281,10 +2281,10 @@
         </is>
       </c>
       <c r="J39" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K39" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="40">
@@ -2296,22 +2296,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Optical Stylist, South Beach, Miami, FL</t>
+          <t>Lead Product Designer</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>SEE Eyewear</t>
+          <t>Softvision</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Utilize down time to ensure merchandising standards and store appearance standards are being met.Keep up to date on current fashion and eyewear trends.</t>
+          <t>Engage in the client’s product vision by researching, conceiving, sketching, prototyping and user-testing experiences for digital products.</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Miami Beach, FL 33139</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2321,7 +2321,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=15b0e366e1d30191&amp;fccid=934f3ebc23a9b17c&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=01ea2a27dc785c21&amp;fccid=bc6d68ab22143afb&amp;vjs=3</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2330,10 +2330,10 @@
         </is>
       </c>
       <c r="J40" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K40" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="41">
@@ -2345,32 +2345,32 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Special Event Designer (Corporate)- Boca By Design</t>
+          <t>Magnolia Design Center System Designer</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Waldorf Astoria Hotels &amp; Resorts</t>
+          <t>Best Buy</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Follow up with Purchasing Agent and Vendors concerned with specific product needed for proposals.The Boca by Design Team is seeking a Special Event Designer!</t>
+          <t>The System Designer builds and manages relationships with builders, architects, interior designers and local Best Buy stores.High School Diploma or equivalent.</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Boca Raton, FL 33432</t>
+          <t>Miami, FL 33143</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>2 days ago·</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=a82fa8faff71ce53&amp;fccid=55e068e3b5b21a45&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=17c5e1e6f139da46&amp;fccid=027d7cca25a5d14f&amp;vjs=3</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2379,10 +2379,10 @@
         </is>
       </c>
       <c r="J41" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K41" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="42">
@@ -2394,32 +2394,32 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Magnolia Design Center System Designer</t>
+          <t>Special Event Designer (Corporate)- Boca By Design</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Best Buy</t>
+          <t>Waldorf Astoria Hotels &amp; Resorts</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>The System Designer builds and manages relationships with builders, architects, interior designers and local Best Buy stores.High School Diploma or equivalent.</t>
+          <t>Follow up with Purchasing Agent and Vendors concerned with specific product needed for proposals.The Boca by Design Team is seeking a Special Event Designer!</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Miami, FL 33143</t>
+          <t>Boca Raton, FL 33432</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Today·Save </t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=17c5e1e6f139da46&amp;fccid=027d7cca25a5d14f&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=a82fa8faff71ce53&amp;fccid=55e068e3b5b21a45&amp;vjs=3</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2428,10 +2428,10 @@
         </is>
       </c>
       <c r="J42" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K42" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="43">
@@ -2443,32 +2443,32 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Lead UX Designer</t>
+          <t>ARRC Coordinator</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>SoftVision - North America &amp; UK</t>
+          <t>The TJX Companies, Inc.</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Engage in the client’s product vision by researching, conceiving, sketching, prototyping and user-testing experiences for digital products.</t>
+          <t>Posting Notes: TJ Maxx Store 4106 || 2100 NW 97th AVE || Doral || FL || 33172.Executes the timely processing of inventory, assets and recyclable, utilizing the…</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Miami, FL 33132 (Downtown area)</t>
+          <t>Doral, FL</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>7 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=88df77378b4b1885&amp;fccid=df18c67b03f6bbd9&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=681544049b3de7db&amp;fccid=56f3f08c4fc3ba79&amp;vjs=3</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2477,10 +2477,10 @@
         </is>
       </c>
       <c r="J43" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K43" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="44">
@@ -2492,32 +2492,32 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>eCommerce Project Manager</t>
+          <t>WAREHOUSE ASSOCIATE</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>OnPoint</t>
+          <t>Emser Tile</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Coordinate that all domains deliver valuable products to the customers (guides, added value products, agency services).</t>
+          <t>Cut and place product materials to create displays that accurately represent product variation.Ability to accurately count/track product that is being received…</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Miami, FL 33169</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=60953bd9c307b325&amp;fccid=8524d30bbfaa4720&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=78180f6ef1662d6b&amp;fccid=badbfaf432b3c56c&amp;vjs=3</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2526,10 +2526,10 @@
         </is>
       </c>
       <c r="J44" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K44" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="45">
@@ -2541,32 +2541,32 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Lead UX Designer</t>
+          <t>Copywriter</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Softvision</t>
+          <t>Miami Marlins</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Engage in the client’s product vision by researching, conceiving, sketching, prototyping and user-testing experiences for digital products.</t>
+          <t>Work with designers, illustrators, printers, photographers and production team to complete campaigns.The copywriter will execute against strategies using his…</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Miami, FL 33125 (Flagami area)</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>7 days ago·</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=821a32dbbdeb138d&amp;fccid=bc6d68ab22143afb&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=0417c79162ce5d45&amp;fccid=ca039b2a955ffd3f&amp;vjs=3</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2575,10 +2575,10 @@
         </is>
       </c>
       <c r="J45" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K45" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="46">
@@ -2590,32 +2590,32 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Tailor, Full Time- Aventura, FL</t>
+          <t>UX Designer</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Brooks Brothers Group, Inc</t>
+          <t>ThrottleWeb</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Tailor our luxurious products to our client’s specifications on state of the art equipment.Minimum of 5 years of store tailoring experience, preferably in…</t>
+          <t>Work as a design lead on projects and will be expected to act as the user advocate throughout the product development lifecycle.</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Aventura, FL 33180</t>
+          <t>Hallandale Beach, FL</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2 days ago·</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=c4c766b3be284f53&amp;fccid=22459122a7f9293e&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=b3d99658f764fc98&amp;fccid=47890e5bc77c84e4&amp;vjs=3</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2624,10 +2624,10 @@
         </is>
       </c>
       <c r="J46" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K46" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="47">
@@ -2639,32 +2639,32 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Part-time Vintage Luxury Consultant (LV, Gucci, Chanel)</t>
+          <t>Information Architect</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Stein Mart</t>
+          <t>Interval International</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>In this position you will promote a high-performance selling culture by inspiring customers and creating new stories and new life in each product.</t>
+          <t>Work with internal team to continually refine and update interactive products.Exceptional verbal and written communication skills and must be able to…</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Boca Raton, FL 33434</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>6 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=8a0667720a3d7d4c&amp;fccid=30b812250949682b&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=ce0bf89fa2cdb4ac&amp;fccid=6e1474abb3491689&amp;vjs=3</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2673,10 +2673,10 @@
         </is>
       </c>
       <c r="J47" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K47" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="48">
@@ -2688,32 +2688,32 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Luxury Brand Commission Sales Professional - New View Women'...</t>
+          <t>Retail Field Trainer</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Bloomingdale's</t>
+          <t>Sally Beauty Holdings</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Expert on product knowledge, understanding features and benefits and sharing with clients.Demonstrate knowledge of store products and services to build sales…</t>
+          <t>Enthusiasm for the beauty industry and its products.Models effective customer service behavior that develops the team to help customers make decisions about…</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Aventura, FL 33180</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=f7cc5f77b62db329&amp;fccid=5e6dd49bdb583f94&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=7e887fa656d509e5&amp;fccid=1bd4e638720fd660&amp;vjs=3</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2722,10 +2722,10 @@
         </is>
       </c>
       <c r="J48" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K48" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="49">
@@ -2737,32 +2737,32 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Senior Industrial Designer</t>
+          <t>Multimedia Producer</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Motorola Solutions</t>
+          <t>Univision communications inc</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Collaborate with senior designers and mentors across disciplines.Our primary customer base includes Public Safety, Enterprise, and Business- products include…</t>
+          <t>Work closely with editors, graphic artists and sound designers to ensure that final product is executed flawlessly.Strong attention to detail is a must.</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Plantation, FL</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=9e5451092f6309ea&amp;fccid=22ec6ef3cc441ac2&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=260c04f3f1eedc93&amp;fccid=a94ccb35abbf24d8&amp;vjs=3</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2771,10 +2771,10 @@
         </is>
       </c>
       <c r="J49" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K49" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="50">
@@ -2786,32 +2786,32 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Junior Graphic Designer</t>
+          <t>eCommerce Project Manager</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Holiday Diver Inc</t>
+          <t>OnPoint</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>This role may expand to include product photography, Amazon SEO, content writing, and video editing.The Graphic Designer is responsible for developing the…</t>
+          <t>Coordinate that all domains deliver valuable products to the customers (guides, added value products, agency services).</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Dania Beach, FL</t>
+          <t>Miami, FL 33169</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t>4 days ago·</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=16cde9f2f47ae3d4&amp;fccid=5df23702b8e32442&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=60953bd9c307b325&amp;fccid=8524d30bbfaa4720&amp;vjs=3</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -2820,10 +2820,10 @@
         </is>
       </c>
       <c r="J50" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K50" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="51">
@@ -2835,32 +2835,32 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Copywriter</t>
+          <t>Sr. Producer</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Miami Marlins</t>
+          <t>Univision communications inc</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Work with designers, illustrators, printers, photographers and production team to complete campaigns.The copywriter will execute against strategies using his…</t>
+          <t>Know our audience, our product, and how to bridge them.Skilled Graphic Designer / Must master After Effects and other Adobe Creative Cloud apps.</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Miami, FL 33125 (Flagami area)</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=0417c79162ce5d45&amp;fccid=ca039b2a955ffd3f&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=e24c8b2cb1b04074&amp;fccid=a94ccb35abbf24d8&amp;vjs=3</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -2869,10 +2869,10 @@
         </is>
       </c>
       <c r="J51" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K51" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="52">
@@ -2884,22 +2884,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Jr. Marketing Graphic Designer</t>
+          <t>Tailor, Full Time- Aventura, FL</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>SmartProcure-GovSpend</t>
+          <t>Brooks Brothers Group, Inc</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>The Junior Marketing Graphic Designer will primarily be responsible for editing and redesigning graphics, working with our sales team, creating marketing…</t>
+          <t>Tailor our luxurious products to our client’s specifications on state of the art equipment.Minimum of 5 years of store tailoring experience, preferably in…</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Deerfield Beach, FL 33441</t>
+          <t>Aventura, FL 33180</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2909,7 +2909,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=138e8ca63c752259&amp;fccid=3e7cb066ac438b70&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=c4c766b3be284f53&amp;fccid=22459122a7f9293e&amp;vjs=3</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -2918,10 +2918,10 @@
         </is>
       </c>
       <c r="J52" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K52" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="53">
@@ -2933,32 +2933,32 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Marketing Associate - Digital Focus</t>
+          <t>Creative Technologies Manager</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Kalorik</t>
+          <t>Chewy</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Proficient in Microsoft Office products and other databases.Support team with product, pricing and competitor research as necessary.</t>
+          <t>Assistant Editors, Editors, Motion Graphics Designers, Audio Engineers, Colorists, and Coordinators.Primary systems administrator and Studio product owner for…</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Miami Gardens, FL 33169</t>
+          <t>Fort Lauderdale, FL 33316 (Harbordale area)</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2 days ago·</t>
+          <t>Just posted</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=b8a3716988c24be9&amp;fccid=b1884a48dc6ddf96&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=adf45217672594aa&amp;fccid=b6add0e6a71f1008&amp;vjs=3</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -2967,10 +2967,10 @@
         </is>
       </c>
       <c r="J53" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K53" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="54">
@@ -2982,32 +2982,32 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Instructional Designer</t>
+          <t>Sr. Email Designer</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>University of Miami</t>
+          <t>Office Depot OfficeMax</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>States instructional end goals and creates content that matches them Visualizes instructional graphics, the user interface and the finished product.</t>
+          <t>Onboard new designers and introduce new Analysts to design process.We’re looking for a Senior Designer with strong production skills who understands the world…</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Coral Gables, FL</t>
+          <t>Boca Raton, FL 33496</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=33185f8fa9a572bf&amp;fccid=ec40e650131b4ee3&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=31c01dd3012a3df6&amp;fccid=31ca68f7796cd983&amp;vjs=3</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3016,10 +3016,10 @@
         </is>
       </c>
       <c r="J54" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K54" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="55">
@@ -3031,32 +3031,32 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Mechanical Engineer</t>
+          <t>Marketing Associate - Digital Focus</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Ford Motor Company</t>
+          <t>Kalorik</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2+ years of experience in a product design environment.Perform Mechanical and Environmental Validation Testing on products under development.</t>
+          <t>Proficient in Microsoft Office products and other databases.Support team with product, pricing and competitor research as necessary.</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Sunrise, FL</t>
+          <t>Miami Gardens, FL 33169</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>4 days ago·</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=55e09c7f933ec2d4&amp;fccid=761c44c17d636bfe&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=b8a3716988c24be9&amp;fccid=b1884a48dc6ddf96&amp;vjs=3</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3065,10 +3065,10 @@
         </is>
       </c>
       <c r="J55" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K55" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="56">
@@ -3080,32 +3080,32 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Lead, Copywriter + Content</t>
+          <t>Luxury Brand Commission Sales Professional - Women's Designe...</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Celebrity Cruises, Inc.</t>
+          <t>Bloomingdale's</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Meticulous attention to detail; clear and concise communication, commitment to producing quality product; deadline conscious.Performs other duties as required.</t>
+          <t>Expert on product knowledge, understanding features and benefits and sharing with clients.Demonstrate knowledge of store products and services to build sales…</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Aventura, FL 33180</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t>3 days ago·</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=025d025c19e1aa45&amp;fccid=d0c4da8d25baf0bd&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=d1d70b1f61c61eb2&amp;fccid=5e6dd49bdb583f94&amp;vjs=3</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3114,10 +3114,10 @@
         </is>
       </c>
       <c r="J56" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K56" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="57">
@@ -3129,17 +3129,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Merchandise Associate</t>
+          <t>Part Time Designer Handbag Sales Associate - Draw Vs Commiss...</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>The TJX Companies, Inc.</t>
+          <t>Neiman Marcus</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Posting Notes: TJ Maxx Store 1340 || 1920 Cordova Road || Fort Lauderdale || FL || 33316.Responsible for delivering a highly satisfied customer experience…</t>
+          <t>Recommends merchandise based on expert product knowledge and client preferences, regardless of department or channel.Cultivate and grow client base.</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3149,12 +3149,12 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=ba303f072b164464&amp;fccid=56f3f08c4fc3ba79&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=c0ee19ab6466e512&amp;fccid=7a11eee3ff8b533d&amp;vjs=3</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3163,10 +3163,10 @@
         </is>
       </c>
       <c r="J57" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K57" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="58">
@@ -3178,32 +3178,32 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Territory Sales Representative - Wood Coatings Specialist, D...</t>
+          <t>Merchandise Associate</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Richelieu Hardware</t>
+          <t>The TJX Companies, Inc.</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>You will successfully manage the sales of Richelieu’s Wood Finishing product solutions (paints, stains, lacquers, abrasives, etc.).What We Are Looking For.</t>
+          <t>Posting Notes: TJ Maxx Store 0710 || 3812 West Hillsboro Boulevard || Deerfield Beach || FL || 33442.Responsible for delivering a highly satisfied customer…</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>+1 location</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=e5f6c489c0183bcf&amp;fccid=c2747b3891936d1b&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=fbb128083d2baeeb&amp;fccid=56f3f08c4fc3ba79&amp;vjs=3</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3212,10 +3212,10 @@
         </is>
       </c>
       <c r="J58" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K58" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="59">
@@ -3227,32 +3227,32 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Kids Bible App Digital Content Project Manager</t>
+          <t>Designer II Part Time Sales Associate - Draw Vs Commission</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>OneHope, Inc</t>
+          <t>Neiman Marcus</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>OneHope's Product Development team designs products that engage children and youth around the world with Scripture.Manages project timelines and budgets.</t>
+          <t>Recommends merchandise based on expert product knowledge and client preferences, regardless of department or channel.Cultivate and grow client base.</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Pompano Beach, FL 33060</t>
+          <t>Fort Lauderdale, FL</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>6 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=8664f41ef4002187&amp;fccid=0add057d030238a3&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=1a71eed80b29b50e&amp;fccid=7a11eee3ff8b533d&amp;vjs=3</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3261,10 +3261,10 @@
         </is>
       </c>
       <c r="J59" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K59" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="60">
@@ -3276,32 +3276,32 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Senior Marketing Manager</t>
+          <t>Junior Graphic Designer</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>St Thomas University</t>
+          <t>Holiday Diver Inc</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Oversee the creation, design and execution of all graphic design and content marketing materials in-house for website, industry media, social media,…</t>
+          <t>This role may expand to include product photography, Amazon SEO, content writing, and video editing.The Graphic Designer is responsible for developing the…</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Miami Gardens, FL 33054</t>
+          <t>Dania Beach, FL</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2 days ago·</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=2d39ef984ccff422&amp;fccid=ac5f41cdab296eb6&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=16cde9f2f47ae3d4&amp;fccid=5df23702b8e32442&amp;vjs=3</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3310,10 +3310,10 @@
         </is>
       </c>
       <c r="J60" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K60" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="61">
@@ -3325,32 +3325,32 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Marketing Associate</t>
+          <t>Lead, Copywriter + Content</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Liberty Power</t>
+          <t>Celebrity Cruises, Inc.</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Manage relationships with outside graphic designers to ensure deliverables are on brand, meet quality standards and are delivered on time within budget.</t>
+          <t>Meticulous attention to detail; clear and concise communication, commitment to producing quality product; deadline conscious.Performs other duties as required.</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Fort Lauderdale, FL 33309</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=c48bce5f54280a20&amp;fccid=a8a6c6063f6af40d&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=025d025c19e1aa45&amp;fccid=d0c4da8d25baf0bd&amp;vjs=3</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3359,10 +3359,10 @@
         </is>
       </c>
       <c r="J61" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K61" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="62">
@@ -3374,32 +3374,32 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Apprenticeship</t>
+          <t>Marketing Associate</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>T R I M</t>
+          <t>Liberty Power</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Apprentices receive hands-on training, work side-by-side with T R I M engineers and product designers, and gain experience in all aspects of agile software…</t>
+          <t>Manage relationships with outside graphic designers to ensure deliverables are on brand, meet quality standards and are delivered on time within budget.</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Fort Lauderdale, FL</t>
+          <t>Fort Lauderdale, FL 33309</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=2eee9518e5c2c461&amp;fccid=ac03badfdc09d467&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=c48bce5f54280a20&amp;fccid=a8a6c6063f6af40d&amp;vjs=3</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3408,10 +3408,10 @@
         </is>
       </c>
       <c r="J62" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K62" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="63">
@@ -3423,32 +3423,32 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Assoc Store Mgr NE NC</t>
+          <t>Product Developer Apprenticeship</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Intermix</t>
+          <t>T R I M</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>A generous merchandise discount on select designers at Intermix and 50% off regular-priced merchandise at Gap, Banana Republic and Old Navy, 30% off at Outlet…</t>
+          <t>Apprentices receive hands-on training, work side-by-side with T R I M engineers and product designers, and gain experience in all aspects of agile software…</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Boca Raton, FL 33481</t>
+          <t>Fort Lauderdale, FL</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=e065b27e9caa144c&amp;fccid=0d9e0f3b0c8f3c5a&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=2eee9518e5c2c461&amp;fccid=ac03badfdc09d467&amp;vjs=3</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3457,10 +3457,10 @@
         </is>
       </c>
       <c r="J63" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K63" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="64">
@@ -3472,32 +3472,32 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>TECHNICAL WRITER</t>
+          <t>Client Administrative Support</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Sonnys Enterprises Inc</t>
+          <t>Sixt Rent A Car</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Collects and interprets technical data or information from customers, designers and manufacturers.Contribute to the definition of tasks and required resources…</t>
+          <t>Serve as an expert in our products and services.Must be willing to wear company uniforms…they’re actually designer clothes!What you’ll do to be sixt-cessful:</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Tamarac, FL 33321</t>
+          <t>Fort Lauderdale, FL 33316 (Harbordale area)</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>6 days ago·</t>
+          <t>7 days ago·</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=e51a47eed38d83d1&amp;fccid=4d2d77ca55e4a7eb&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=ac387e52f793a5e2&amp;fccid=773e912547e8138e&amp;vjs=3</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3506,10 +3506,10 @@
         </is>
       </c>
       <c r="J64" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K64" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="65">
@@ -3521,32 +3521,32 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Sr. Email Designer</t>
+          <t>Senior Marketing Manager</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Office Depot OfficeMax</t>
+          <t>St Thomas University</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Onboard new designers and introduce new Analysts to design process.We’re looking for a Senior Designer with strong production skills who understands the world…</t>
+          <t>Oversee the creation, design and execution of all graphic design and content marketing materials in-house for website, industry media, social media,…</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Boca Raton, FL 33496</t>
+          <t>Miami Gardens, FL 33054</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Just posted</t>
+          <t>4 days ago·</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=31c01dd3012a3df6&amp;fccid=31ca68f7796cd983&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=2d39ef984ccff422&amp;fccid=ac5f41cdab296eb6&amp;vjs=3</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -3555,10 +3555,10 @@
         </is>
       </c>
       <c r="J65" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K65" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="66">
@@ -3570,32 +3570,32 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Store Manager, Miami</t>
+          <t>Lead Installer, Magnolia Custom</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>OTB</t>
+          <t>Best Buy</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Maison Margiela is a Paris-based fashion house founded in 1988 by Belgian designer Martin Margiela.Conduct daily/weekly/monthly analysis of business and…</t>
+          <t>You will need to meet the Magnolia standard of excellence in device mounting, cable management, power management and functionality of audio products.</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Miami Beach, FL</t>
+          <t>Boca Raton, FL 33498</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>6 days ago·</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=f57caed0e7c2f6b7&amp;fccid=7a6f24c0980e860f&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=41a2acce13813002&amp;fccid=027d7cca25a5d14f&amp;vjs=3</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3604,10 +3604,10 @@
         </is>
       </c>
       <c r="J66" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K66" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="67">
@@ -3619,17 +3619,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Software Developer</t>
+          <t>Back-End Engineer</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Selmer Demo</t>
+          <t>T R I M</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Working closely with other developers, UX designers, business and systems analysts.Net, C, Sybase and Oracle Software Developer is generally responsible for…</t>
+          <t>T R I M Agency is seeking a Backend Engineer to join our startup studio.The ideal candidate will not only love to code, but love to see companies grow from…</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3639,12 +3639,12 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=b4a4119579df4ad5&amp;fccid=7abf1052483dbe25&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=f06b9fa71264d3f8&amp;fccid=ac03badfdc09d467&amp;vjs=3</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -3653,10 +3653,10 @@
         </is>
       </c>
       <c r="J67" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K67" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="68">
@@ -3668,32 +3668,32 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Client Administrative Support</t>
+          <t>AUTOMATED TEST EQUIPMENT SALES MANAGER</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Sixt Rent a Car, LLC.</t>
+          <t>CHROMA SYSTEMS SOLUTIONS INC</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Serve as an expert in our products and services.Must be willing to wear company uniforms…they’re actually designer clothes!What you’ll do to be sixt-cessful:</t>
+          <t>Identifying key accounts and market requirements; identifying trends, threats and opportunities for product improvement.Reports To: Director of ATE Sales.</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Fort Lauderdale, FL 33316 (Harbordale area)</t>
+          <t>Miami, FL 33101 (Overtown area)</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=3380e4b9927bc9e6&amp;fccid=fa1d1e8b4e65c70a&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=39135e3e238bf962&amp;fccid=3393d664c9d37b5f&amp;vjs=3</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -3702,10 +3702,10 @@
         </is>
       </c>
       <c r="J68" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K68" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="69">
@@ -3713,36 +3713,36 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Embedded Software/System Engineer</t>
+          <t>Client Administrative Support</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Astronics</t>
+          <t>Sixt Rent a Car, LLC.</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Assist other engineers and designers to successfully complete design and certification (if applicable) of commercial and government products.</t>
+          <t>Serve as an expert in our products and services.Must be willing to wear company uniforms…they’re actually designer clothes!What you’ll do to be sixt-cessful:</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Fort Lauderdale, FL 33309</t>
+          <t>Fort Lauderdale, FL 33316 (Harbordale area)</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t>7 days ago·</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=7fd9ae60545c5afb&amp;fccid=0760d41f7a3c4154&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=3380e4b9927bc9e6&amp;fccid=fa1d1e8b4e65c70a&amp;vjs=3</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -3751,10 +3751,10 @@
         </is>
       </c>
       <c r="J69" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K69" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="70">
@@ -3762,36 +3762,36 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Senior Transportation Project Manager</t>
+          <t>Embedded Software/System Engineer</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>WSP USA</t>
+          <t>Astronics</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Roadway design experience or experience working closely with civil designers.Supervise, lead, and mentor mid-level and Junior staff -Lead teams of WSP staff…</t>
+          <t>Assist other engineers and designers to successfully complete design and certification (if applicable) of commercial and government products.</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Fort Lauderdale, FL 33309</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=0efb4df38d92e1ad&amp;fccid=0c9fc109eb8096e4&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=7fd9ae60545c5afb&amp;fccid=0760d41f7a3c4154&amp;vjs=3</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -3800,10 +3800,10 @@
         </is>
       </c>
       <c r="J70" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K70" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="71">
@@ -3811,36 +3811,36 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Sr. Instrumentation &amp; Controls Engineer - Water</t>
+          <t>Back-End Engineer</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Stantec</t>
+          <t>T R I M</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>The I&amp;C Engineer will work independently on projects, and lead a team of engineers and designers acting as a Discipline Lead for larger or more complex projects…</t>
+          <t>T R I M Agency is seeking a Backend Engineer to join our startup studio.The ideal candidate will not only love to code, but love to see companies grow from…</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Deerfield Beach, FL 33443</t>
+          <t>Fort Lauderdale, FL</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=ff1af6e37ebf51fe&amp;fccid=f1582c464db8553b&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=f06b9fa71264d3f8&amp;fccid=ac03badfdc09d467&amp;vjs=3</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -3849,10 +3849,10 @@
         </is>
       </c>
       <c r="J71" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K71" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="72">
@@ -3860,36 +3860,36 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Product Designer</t>
+          <t>Sr. Instrumentation &amp; Controls Engineer - Water</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>CBS</t>
+          <t>Stantec</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>CBS Sports is seeking a talented Product Designer that is local to NYC, SF, TN or Fort Lauderdale, FL.Desire or experience collaborating, iterating, and…</t>
+          <t>The I&amp;C Engineer will work independently on projects, and lead a team of engineers and designers acting as a Discipline Lead for larger or more complex projects…</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Fort Lauderdale, FL 33313</t>
+          <t>Deerfield Beach, FL 33443</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=dfbb7e67a595b260&amp;fccid=39985237a7b0e241&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=ff1af6e37ebf51fe&amp;fccid=f1582c464db8553b&amp;vjs=3</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -3898,10 +3898,10 @@
         </is>
       </c>
       <c r="J72" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K72" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="73">
@@ -3909,36 +3909,36 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Lead Product Designer</t>
+          <t>Product Designer</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>SoftVision - North America &amp; UK</t>
+          <t>CBS</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Engage in the client’s product vision by researching, conceiving, sketching, prototyping and user-testing experiences for digital products.</t>
+          <t>Desire or experience collaborating, iterating, and testing with Product and Engineering to discover the solutions that exceed user expectations.</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Miami, FL 33132 (Downtown area)</t>
+          <t>Fort Lauderdale, FL 33313</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=53d062bbe12e6df4&amp;fccid=df18c67b03f6bbd9&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=dfbb7e67a595b260&amp;fccid=39985237a7b0e241&amp;vjs=3</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -3947,10 +3947,10 @@
         </is>
       </c>
       <c r="J73" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K73" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="74">
@@ -3958,7 +3958,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3996,10 +3996,10 @@
         </is>
       </c>
       <c r="J74" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K74" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="75">
@@ -4007,7 +4007,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Hilton·3 da</t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -4045,10 +4045,10 @@
         </is>
       </c>
       <c r="J75" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K75" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="76">
@@ -4056,26 +4056,26 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Optical Stylist, South Beach, Miami, FL</t>
+          <t>Lead Product Designer</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>SEE Eyewear</t>
+          <t>SoftVision - North America &amp; UK</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Utilize down time to ensure merchandising standards and store appearance standards are being met.Keep up to date on current fashion and eyewear trends.</t>
+          <t>Engage in the client’s product vision by researching, conceiving, sketching, prototyping and user-testing experiences for digital products.</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Miami Beach, FL 33139</t>
+          <t>Miami, FL 33132 (Downtown area)</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -4085,7 +4085,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=15b0e366e1d30191&amp;fccid=934f3ebc23a9b17c&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=53d062bbe12e6df4&amp;fccid=df18c67b03f6bbd9&amp;vjs=3</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -4094,10 +4094,10 @@
         </is>
       </c>
       <c r="J76" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K76" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="77">
@@ -4105,36 +4105,36 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Magnolia Design Center System Designer</t>
+          <t>Copywriter</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Best Buy</t>
+          <t>Miami Marlins</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>The System Designer builds and manages relationships with builders, architects, interior designers and local Best Buy stores.High School Diploma or equivalent.</t>
+          <t>Work with designers, illustrators, printers, photographers and production team to complete campaigns.The copywriter will execute against strategies using his…</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Miami, FL 33143</t>
+          <t>Miami, FL 33125 (Flagami area)</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Today·Save </t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=17c5e1e6f139da46&amp;fccid=027d7cca25a5d14f&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=0417c79162ce5d45&amp;fccid=ca039b2a955ffd3f&amp;vjs=3</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -4143,10 +4143,10 @@
         </is>
       </c>
       <c r="J77" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K77" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="78">
@@ -4154,36 +4154,36 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Lead UX Designer</t>
+          <t>Instructional Designer</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>SoftVision - North America &amp; UK</t>
+          <t>University of Miami</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Engage in the client’s product vision by researching, conceiving, sketching, prototyping and user-testing experiences for digital products.</t>
+          <t>Visualizes instructional graphics, the user interface and the finished product.Works with subject matter experts, conducts needs assessments and analysis to…</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Miami, FL 33132 (Downtown area)</t>
+          <t>Coral Gables, FL</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>7 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=88df77378b4b1885&amp;fccid=df18c67b03f6bbd9&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=3291e696df7e6396&amp;fccid=ec40e650131b4ee3&amp;vjs=3</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4192,10 +4192,10 @@
         </is>
       </c>
       <c r="J78" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K78" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="79">
@@ -4203,21 +4203,21 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Lead UX Designer</t>
+          <t>WAREHOUSE ASSOCIATE</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Softvision</t>
+          <t>Emser Tile</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Engage in the client’s product vision by researching, conceiving, sketching, prototyping and user-testing experiences for digital products.</t>
+          <t>Ability to accurately count/track product that is being received or shipped.Emser Tile, LLC, the nationwide supplier of high-quality floor covering products…</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4227,12 +4227,12 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>7 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=821a32dbbdeb138d&amp;fccid=bc6d68ab22143afb&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=78180f6ef1662d6b&amp;fccid=badbfaf432b3c56c&amp;vjs=3</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4241,10 +4241,10 @@
         </is>
       </c>
       <c r="J79" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K79" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="80">
@@ -4252,36 +4252,36 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>eCommerce Project Manager</t>
+          <t>Retail Field Trainer</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>OnPoint</t>
+          <t>Sally Beauty Holdings</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Coordinate that all domains deliver valuable products to the customers (guides, added value products, agency services).</t>
+          <t>Enthusiasm for the beauty industry and its products.Models effective customer service behavior that develops the team to help customers make decisions about…</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Miami, FL 33169</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=60953bd9c307b325&amp;fccid=8524d30bbfaa4720&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=7e887fa656d509e5&amp;fccid=1bd4e638720fd660&amp;vjs=3</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4290,10 +4290,10 @@
         </is>
       </c>
       <c r="J80" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K80" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="81">
@@ -4301,36 +4301,36 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Part-time Vintage Luxury Consultant (LV, Gucci, Chanel)</t>
+          <t>Magnolia Design Center System Designer</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Stein Mart</t>
+          <t>Best Buy</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>In this position you will promote a high-performance selling culture by inspiring customers and creating new stories and new life in each product.</t>
+          <t>The System Designer builds and manages relationships with builders, architects, interior designers and local Best Buy stores.High School Diploma or equivalent.</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Boca Raton, FL 33434</t>
+          <t>Miami, FL 33143</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>6 days ago·</t>
+          <t>2 days ago·</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=8a0667720a3d7d4c&amp;fccid=30b812250949682b&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=17c5e1e6f139da46&amp;fccid=027d7cca25a5d14f&amp;vjs=3</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -4339,10 +4339,10 @@
         </is>
       </c>
       <c r="J81" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K81" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="82">
@@ -4350,36 +4350,36 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Luxury Brand Commission Sales Professional - New View Women'...</t>
+          <t>UX Designer</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Bloomingdale's</t>
+          <t>ThrottleWeb</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Expert on product knowledge, understanding features and benefits and sharing with clients.Demonstrate knowledge of store products and services to build sales…</t>
+          <t>Facilitate user interviews, field research, joint application design (JAD) sessions, focus groups, and usability tests to ensure that user input is gathered…</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Aventura, FL 33180</t>
+          <t>Hallandale Beach, FL</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Macy's·2 da</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=f7cc5f77b62db329&amp;fccid=5e6dd49bdb583f94&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=b3d99658f764fc98&amp;fccid=47890e5bc77c84e4&amp;vjs=3</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -4388,10 +4388,10 @@
         </is>
       </c>
       <c r="J82" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K82" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="83">
@@ -4399,36 +4399,36 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Tailor, Full Time- Aventura, FL</t>
+          <t>Multimedia Producer</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Brooks Brothers Group, Inc</t>
+          <t>Univision communications inc</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Tailor our luxurious products to our client’s specifications on state of the art equipment.Minimum of 5 years of store tailoring experience, preferably in…</t>
+          <t>Work closely with editors, graphic artists and sound designers to ensure that final product is executed flawlessly.Strong attention to detail is a must.</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Aventura, FL 33180</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=c4c766b3be284f53&amp;fccid=22459122a7f9293e&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=260c04f3f1eedc93&amp;fccid=a94ccb35abbf24d8&amp;vjs=3</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -4437,10 +4437,10 @@
         </is>
       </c>
       <c r="J83" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K83" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="84">
@@ -4448,36 +4448,36 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Senior Industrial Designer</t>
+          <t>Junior Graphic Designer</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Motorola Solutions</t>
+          <t>Holiday Diver Inc</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Collaborate with senior designers and mentors across disciplines.Our primary customer base includes Public Safety, Enterprise, and Business- products include…</t>
+          <t>This role may expand to include product photography, Amazon SEO, content writing, and video editing.The Graphic Designer is responsible for developing the…</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Plantation, FL</t>
+          <t>Dania Beach, FL</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=9e5451092f6309ea&amp;fccid=22ec6ef3cc441ac2&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=16cde9f2f47ae3d4&amp;fccid=5df23702b8e32442&amp;vjs=3</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -4486,10 +4486,10 @@
         </is>
       </c>
       <c r="J84" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K84" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="85">
@@ -4497,36 +4497,36 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Copywriter</t>
+          <t>Information Architect</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Miami Marlins</t>
+          <t>Interval International</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Work with designers, illustrators, printers, photographers and production team to complete campaigns.The copywriter will execute against strategies using his…</t>
+          <t>Work with internal team to continually refine and update interactive products.Work with internal teams of business owners, project managers, designers and…</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Miami, FL 33125 (Flagami area)</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=0417c79162ce5d45&amp;fccid=ca039b2a955ffd3f&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=ce0bf89fa2cdb4ac&amp;fccid=6e1474abb3491689&amp;vjs=3</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -4535,10 +4535,10 @@
         </is>
       </c>
       <c r="J85" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K85" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="86">
@@ -4546,36 +4546,36 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Marketing Associate - Digital Focus</t>
+          <t>Sr. Email Designer</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Kalorik</t>
+          <t>Office Depot OfficeMax</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Proficient in Microsoft Office products and other databases.Support team with product, pricing and competitor research as necessary.</t>
+          <t>Onboard new designers and introduce new Analysts to design process.We’re looking for a Senior Designer with strong production skills who understands the world…</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Miami Gardens, FL 33169</t>
+          <t>Boca Raton, FL 33496</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2 days ago·</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=b8a3716988c24be9&amp;fccid=b1884a48dc6ddf96&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=31c01dd3012a3df6&amp;fccid=31ca68f7796cd983&amp;vjs=3</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -4584,10 +4584,10 @@
         </is>
       </c>
       <c r="J86" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K86" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="87">
@@ -4595,36 +4595,36 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Junior Graphic Designer</t>
+          <t>Marketing Associate - Digital Focus</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Holiday Diver Inc</t>
+          <t>Kalorik</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>This role may expand to include product photography, Amazon SEO, content writing, and video editing.The Graphic Designer is responsible for developing the…</t>
+          <t>Proficient in Microsoft Office products and other databases.Support team with product, pricing and competitor research as necessary.</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Dania Beach, FL</t>
+          <t>Miami Gardens, FL 33169</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t>4 days ago·</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=16cde9f2f47ae3d4&amp;fccid=5df23702b8e32442&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=b8a3716988c24be9&amp;fccid=b1884a48dc6ddf96&amp;vjs=3</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -4633,10 +4633,10 @@
         </is>
       </c>
       <c r="J87" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K87" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="88">
@@ -4644,26 +4644,26 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Jr. Marketing Graphic Designer</t>
+          <t>eCommerce Project Manager</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>SmartProcure-GovSpend</t>
+          <t>OnPoint</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>The Junior Marketing Graphic Designer will primarily be responsible for editing and redesigning graphics, working with our sales team, creating marketing…</t>
+          <t>Coordinate that all domains deliver valuable products to the customers (guides, added value products, agency services).</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Deerfield Beach, FL 33441</t>
+          <t>Miami, FL 33169</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -4673,7 +4673,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=138e8ca63c752259&amp;fccid=3e7cb066ac438b70&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=60953bd9c307b325&amp;fccid=8524d30bbfaa4720&amp;vjs=3</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -4682,10 +4682,10 @@
         </is>
       </c>
       <c r="J88" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K88" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="89">
@@ -4693,36 +4693,36 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Instructional Designer</t>
+          <t>Creative Technologies Manager</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>University of Miami</t>
+          <t>Chewy</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>States instructional end goals and creates content that matches them Visualizes instructional graphics, the user interface and the finished product.</t>
+          <t>Assistant Editors, Editors, Motion Graphics Designers, Audio Engineers, Colorists, and Coordinators.Primary systems administrator and Studio product owner for…</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Coral Gables, FL</t>
+          <t>Fort Lauderdale, FL 33316 (Harbordale area)</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t>Just posted</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=33185f8fa9a572bf&amp;fccid=ec40e650131b4ee3&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=adf45217672594aa&amp;fccid=b6add0e6a71f1008&amp;vjs=3</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -4731,10 +4731,10 @@
         </is>
       </c>
       <c r="J89" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K89" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="90">
@@ -4742,11 +4742,11 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Merchandise Associate</t>
+          <t>ARRC Coordinator</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4756,22 +4756,22 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Posting Notes: TJ Maxx Store 1340 || 1920 Cordova Road || Fort Lauderdale || FL || 33316.Responsible for delivering a highly satisfied customer experience…</t>
+          <t>Posting Notes: TJ Maxx Store 4106 || 2100 NW 97th AVE || Doral || FL || 33172.Executes the timely processing of inventory, assets and recyclable, utilizing the…</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Fort Lauderdale, FL</t>
+          <t>Doral, FL</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=ba303f072b164464&amp;fccid=56f3f08c4fc3ba79&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=681544049b3de7db&amp;fccid=56f3f08c4fc3ba79&amp;vjs=3</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="J90" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K90" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="91">
@@ -4791,21 +4791,21 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Lead, Copywriter + Content</t>
+          <t>Sr. Producer</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Celebrity Cruises, Inc.</t>
+          <t>Univision communications inc</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Meticulous attention to detail; clear and concise communication, commitment to producing quality product; deadline conscious.Performs other duties as required.</t>
+          <t>Know our audience, our product, and how to bridge them.Skilled Graphic Designer / Must master After Effects and other Adobe Creative Cloud apps.</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -4815,12 +4815,12 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Royal Carib</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=025d025c19e1aa45&amp;fccid=d0c4da8d25baf0bd&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=e24c8b2cb1b04074&amp;fccid=a94ccb35abbf24d8&amp;vjs=3</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -4829,10 +4829,10 @@
         </is>
       </c>
       <c r="J91" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K91" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="92">
@@ -4840,36 +4840,36 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Mechanical Engineer</t>
+          <t>Merchandise Associate</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Ford Motor Company</t>
+          <t>The TJX Companies, Inc.</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2+ years of experience in a product design environment.Perform Mechanical and Environmental Validation Testing on products under development.</t>
+          <t>Posting Notes: TJ Maxx Store 1340 || 1920 Cordova Road || Fort Lauderdale || FL || 33316.Responsible for delivering a highly satisfied customer experience…</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Sunrise, FL</t>
+          <t>+1 location</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=55e09c7f933ec2d4&amp;fccid=761c44c17d636bfe&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=ba303f072b164464&amp;fccid=56f3f08c4fc3ba79&amp;vjs=3</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -4878,10 +4878,10 @@
         </is>
       </c>
       <c r="J92" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K92" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="93">
@@ -4889,36 +4889,36 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Territory Sales Representative - Wood Coatings Specialist, D...</t>
+          <t>Client Administrative Support</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Richelieu Hardware</t>
+          <t>Sixt Rent a Car, LLC.</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>You will successfully manage the sales of Richelieu’s Wood Finishing product solutions (paints, stains, lacquers, abrasives, etc.).What We Are Looking For.</t>
+          <t>Serve as an expert in our products and services.Must be willing to wear company uniforms…they’re actually designer clothes!What you’ll do to be sixt-cessful:</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Fort Lauderdale, FL 33316 (Harbordale area)</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t>7 days ago·</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=e5f6c489c0183bcf&amp;fccid=c2747b3891936d1b&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=3380e4b9927bc9e6&amp;fccid=fa1d1e8b4e65c70a&amp;vjs=3</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -4927,10 +4927,10 @@
         </is>
       </c>
       <c r="J93" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K93" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="94">
@@ -4938,26 +4938,26 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Kids Bible App Digital Content Project Manager</t>
+          <t>Lead, Copywriter + Content</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>OneHope, Inc</t>
+          <t>Celebrity Cruises, Inc.</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>OneHope's Product Development team designs products that engage children and youth around the world with Scripture.Manages project timelines and budgets.</t>
+          <t>Partners with Graphic Designer on a daily basis to ensure design and copy complement the marketing piece including regular updates of destination messaging for…</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Pompano Beach, FL 33060</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -4967,7 +4967,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=8664f41ef4002187&amp;fccid=0add057d030238a3&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=025d025c19e1aa45&amp;fccid=d0c4da8d25baf0bd&amp;vjs=3</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -4976,10 +4976,10 @@
         </is>
       </c>
       <c r="J94" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K94" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="95">
@@ -4987,36 +4987,36 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Senior Marketing Manager</t>
+          <t>Marketing Associate</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>St Thomas University</t>
+          <t>Liberty Power</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Oversee the creation, design and execution of all graphic design and content marketing materials in-house for website, industry media, social media,…</t>
+          <t>Manage relationships with outside graphic designers to ensure deliverables are on brand, meet quality standards and are delivered on time within budget.</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Miami Gardens, FL 33054</t>
+          <t>Fort Lauderdale, FL 33309</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2 days ago·</t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=2d39ef984ccff422&amp;fccid=ac5f41cdab296eb6&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=c48bce5f54280a20&amp;fccid=a8a6c6063f6af40d&amp;vjs=3</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -5025,10 +5025,10 @@
         </is>
       </c>
       <c r="J95" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K95" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="96">
@@ -5036,36 +5036,36 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Marketing Associate</t>
+          <t>Part Time Designer Handbag Sales Associate - Draw Vs Commiss...</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Liberty Power</t>
+          <t>Neiman Marcus</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Manage relationships with outside graphic designers to ensure deliverables are on brand, meet quality standards and are delivered on time within budget.</t>
+          <t>Recommends merchandise based on expert product knowledge and client preferences, regardless of department or channel.Cultivate and grow client base.</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Fort Lauderdale, FL 33309</t>
+          <t>Fort Lauderdale, FL</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=c48bce5f54280a20&amp;fccid=a8a6c6063f6af40d&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=c0ee19ab6466e512&amp;fccid=7a11eee3ff8b533d&amp;vjs=3</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -5074,10 +5074,10 @@
         </is>
       </c>
       <c r="J96" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K96" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="97">
@@ -5085,36 +5085,36 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Apprenticeship</t>
+          <t>Tailor, Full Time- Aventura, FL</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>T R I M</t>
+          <t>Brooks Brothers Group, Inc</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Apprentices receive hands-on training, work side-by-side with T R I M engineers and product designers, and gain experience in all aspects of agile software…</t>
+          <t>Tailor our luxurious products to our client’s specifications on state of the art equipment.Minimum of 5 years of store tailoring experience, preferably in…</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Fort Lauderdale, FL</t>
+          <t>Aventura, FL 33180</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>4 days ago·</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=2eee9518e5c2c461&amp;fccid=ac03badfdc09d467&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=c4c766b3be284f53&amp;fccid=22459122a7f9293e&amp;vjs=3</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -5123,10 +5123,10 @@
         </is>
       </c>
       <c r="J97" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K97" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="98">
@@ -5134,36 +5134,36 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>TECHNICAL WRITER</t>
+          <t>Designer II Part Time Sales Associate - Draw Vs Commission</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Sonnys Enterprises Inc</t>
+          <t>Neiman Marcus</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Collects and interprets technical data or information from customers, designers and manufacturers.Contribute to the definition of tasks and required resources…</t>
+          <t>Recommends merchandise based on expert product knowledge and client preferences, regardless of department or channel.Cultivate and grow client base.</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Tamarac, FL 33321</t>
+          <t>Fort Lauderdale, FL</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>6 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=e51a47eed38d83d1&amp;fccid=4d2d77ca55e4a7eb&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=1a71eed80b29b50e&amp;fccid=7a11eee3ff8b533d&amp;vjs=3</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -5172,10 +5172,10 @@
         </is>
       </c>
       <c r="J98" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K98" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="99">
@@ -5183,36 +5183,36 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Store Manager, Miami</t>
+          <t>Product Developer Apprenticeship</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>OTB</t>
+          <t>T R I M</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Maison Margiela is a Paris-based fashion house founded in 1988 by Belgian designer Martin Margiela.Conduct daily/weekly/monthly analysis of business and…</t>
+          <t>Apprentices receive hands-on training, work side-by-side with T R I M engineers and product designers, and gain experience in all aspects of agile software…</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Miami Beach, FL</t>
+          <t>Fort Lauderdale, FL</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>6 days ago·</t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=f57caed0e7c2f6b7&amp;fccid=7a6f24c0980e860f&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=2eee9518e5c2c461&amp;fccid=ac03badfdc09d467&amp;vjs=3</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -5221,10 +5221,10 @@
         </is>
       </c>
       <c r="J99" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K99" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="100">
@@ -5232,36 +5232,36 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Sr. Email Designer</t>
+          <t>Mechanical Engineer</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Office Depot OfficeMax</t>
+          <t>Ford Motor Company</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Onboard new designers and introduce new Analysts to design process.We’re looking for a Senior Designer with strong production skills who understands the world…</t>
+          <t>2+ years of experience in a product design environment.Perform Mechanical and Environmental Validation Testing on products under development.</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Boca Raton, FL 33496</t>
+          <t>Sunrise, FL</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Just posted</t>
+          <t>4 days ago·</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=31c01dd3012a3df6&amp;fccid=31ca68f7796cd983&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=55e09c7f933ec2d4&amp;fccid=761c44c17d636bfe&amp;vjs=3</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -5270,10 +5270,10 @@
         </is>
       </c>
       <c r="J100" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K100" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="101">
@@ -5281,36 +5281,36 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Assoc Store Mgr NE NC</t>
+          <t>Luxury Brand Commission Sales Professional - New View Women'...</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Intermix</t>
+          <t>Bloomingdale's</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>A generous merchandise discount on select designers at Intermix and 50% off regular-priced merchandise at Gap, Banana Republic and Old Navy, 30% off at Outlet…</t>
+          <t>Expert on product knowledge, understanding features and benefits and sharing with clients.Demonstrate knowledge of store products and services to build sales…</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Boca Raton, FL 33481</t>
+          <t>Aventura, FL 33180</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gap Inc.·3 </t>
+          <t>3 days ago·</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=e065b27e9caa144c&amp;fccid=0d9e0f3b0c8f3c5a&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=f7cc5f77b62db329&amp;fccid=5e6dd49bdb583f94&amp;vjs=3</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -5319,10 +5319,10 @@
         </is>
       </c>
       <c r="J101" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K101" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="102">
@@ -5330,36 +5330,36 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Client Administrative Support</t>
+          <t>Senior Marketing Manager</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Sixt Rent a Car, LLC.</t>
+          <t>St Thomas University</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Serve as an expert in our products and services.Must be willing to wear company uniforms…they’re actually designer clothes!What you’ll do to be sixt-cessful:</t>
+          <t>Oversee the creation, design and execution of all graphic design and content marketing materials in-house for website, industry media, social media,…</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Fort Lauderdale, FL 33316 (Harbordale area)</t>
+          <t>Miami Gardens, FL 33054</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t>4 days ago·</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=3380e4b9927bc9e6&amp;fccid=fa1d1e8b4e65c70a&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=2d39ef984ccff422&amp;fccid=ac5f41cdab296eb6&amp;vjs=3</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -5368,10 +5368,10 @@
         </is>
       </c>
       <c r="J102" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K102" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="103">
@@ -5379,36 +5379,36 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Software Developer</t>
+          <t>AUTOMATED TEST EQUIPMENT SALES MANAGER</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Selmer Demo</t>
+          <t>CHROMA SYSTEMS SOLUTIONS INC</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Working closely with other developers, UX designers, business and systems analysts.Net, C, Sybase and Oracle Software Developer is generally responsible for…</t>
+          <t>Identifying key accounts and market requirements; identifying trends, threats and opportunities for product improvement.Reports To: Director of ATE Sales.</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Fort Lauderdale, FL</t>
+          <t>Miami, FL 33101 (Overtown area)</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=b4a4119579df4ad5&amp;fccid=7abf1052483dbe25&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=39135e3e238bf962&amp;fccid=3393d664c9d37b5f&amp;vjs=3</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -5417,10 +5417,10 @@
         </is>
       </c>
       <c r="J103" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K103" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="104">
@@ -5428,36 +5428,36 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Embedded Software/System Engineer</t>
+          <t>Assoc Store Mgr NE NC</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Astronics</t>
+          <t>Intermix</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Assist other engineers and designers to successfully complete design and certification (if applicable) of commercial and government products.</t>
+          <t>A generous merchandise discount on select designers at Intermix and 50% off regular-priced merchandise at Gap, Banana Republic and Old Navy, 30% off at Outlet…</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Fort Lauderdale, FL 33309</t>
+          <t>Boca Raton, FL 33481</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=7fd9ae60545c5afb&amp;fccid=0760d41f7a3c4154&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=e065b27e9caa144c&amp;fccid=0d9e0f3b0c8f3c5a&amp;vjs=3</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -5466,10 +5466,10 @@
         </is>
       </c>
       <c r="J104" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K104" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="105">
@@ -5477,36 +5477,36 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Senior Transportation Project Manager</t>
+          <t>Assoc Store Mgr NE NC</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>WSP USA</t>
+          <t>Intermix</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Roadway design experience or experience working closely with civil designers.Supervise, lead, and mentor mid-level and Junior staff -Lead teams of WSP staff…</t>
+          <t>We’re all about delighting our customers by helping them to discover trends, designers and notably special pieces.Provide clear feedback and regular coaching.</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Boca Raton, FL 33481</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t xml:space="preserve">Gap Inc.·5 </t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=0efb4df38d92e1ad&amp;fccid=0c9fc109eb8096e4&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=e065b27e9caa144c&amp;fccid=0d9e0f3b0c8f3c5a&amp;vjs=3</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -5515,10 +5515,10 @@
         </is>
       </c>
       <c r="J105" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K105" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="106">
@@ -5526,36 +5526,36 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Sr. Instrumentation &amp; Controls Engineer - Water</t>
+          <t>Embedded Software/System Engineer</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Stantec</t>
+          <t>Astronics</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>The I&amp;C Engineer will work independently on projects, and lead a team of engineers and designers acting as a Discipline Lead for larger or more complex projects…</t>
+          <t>Assist other engineers and designers to successfully complete design and certification (if applicable) of commercial and government products.</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Deerfield Beach, FL 33443</t>
+          <t>Fort Lauderdale, FL 33309</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=ff1af6e37ebf51fe&amp;fccid=f1582c464db8553b&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=7fd9ae60545c5afb&amp;fccid=0760d41f7a3c4154&amp;vjs=3</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -5564,10 +5564,10 @@
         </is>
       </c>
       <c r="J106" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K106" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="107">
@@ -5575,26 +5575,26 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Product Designer</t>
+          <t>Mechanical Engineer</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>CBS</t>
+          <t>Ford Motor Company</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>CBS Sports is seeking a talented Product Designer that is local to NYC, SF, TN or Fort Lauderdale, FL.Desire or experience collaborating, iterating, and…</t>
+          <t>2+ years of experience in a product design environment.Perform Mechanical and Environmental Validation Testing on products under development.</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Fort Lauderdale, FL 33313</t>
+          <t>Sunrise, FL</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -5604,7 +5604,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=dfbb7e67a595b260&amp;fccid=39985237a7b0e241&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=55e09c7f933ec2d4&amp;fccid=761c44c17d636bfe&amp;vjs=3</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -5613,10 +5613,10 @@
         </is>
       </c>
       <c r="J107" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K107" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="108">
@@ -5624,26 +5624,26 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Lead Product Designer</t>
+          <t>Sr. Instrumentation &amp; Controls Engineer - Water</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>SoftVision - North America &amp; UK</t>
+          <t>Stantec</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Engage in the client’s product vision by researching, conceiving, sketching, prototyping and user-testing experiences for digital products.</t>
+          <t>The I&amp;C Engineer will work independently on projects, and lead a team of engineers and designers acting as a Discipline Lead for larger or more complex projects…</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Miami, FL 33132 (Downtown area)</t>
+          <t>Deerfield Beach, FL 33443</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -5653,7 +5653,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=53d062bbe12e6df4&amp;fccid=df18c67b03f6bbd9&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=ff1af6e37ebf51fe&amp;fccid=f1582c464db8553b&amp;vjs=3</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -5662,10 +5662,10 @@
         </is>
       </c>
       <c r="J108" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K108" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="109">
@@ -5673,36 +5673,36 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Lead Product Designer</t>
+          <t>Product Designer</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Softvision</t>
+          <t>CBS</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Engage in the client’s product vision by researching, conceiving, sketching, prototyping and user-testing experiences for digital products.</t>
+          <t>CBS Sports is seeking a talented Product Designer that is local to NYC, SF, TN or Fort Lauderdale, FL.Desire or experience collaborating, iterating, and…</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Fort Lauderdale, FL 33313</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=01ea2a27dc785c21&amp;fccid=bc6d68ab22143afb&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=dfbb7e67a595b260&amp;fccid=39985237a7b0e241&amp;vjs=3</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -5711,10 +5711,10 @@
         </is>
       </c>
       <c r="J109" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K109" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="110">
@@ -5722,36 +5722,36 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Special Event Designer (Corporate)- Boca By Design</t>
+          <t>Lead Product Designer</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Waldorf Astoria Hotels &amp; Resorts</t>
+          <t>SoftVision - North America &amp; UK</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Follow up with Purchasing Agent and Vendors concerned with specific product needed for proposals.The Boca by Design Team is seeking a Special Event Designer!</t>
+          <t>Engage in the client’s product vision by researching, conceiving, sketching, prototyping and user-testing experiences for digital products.</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Boca Raton, FL 33432</t>
+          <t>Miami, FL 33132 (Downtown area)</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Hilton·3 da</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=a82fa8faff71ce53&amp;fccid=55e068e3b5b21a45&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=53d062bbe12e6df4&amp;fccid=df18c67b03f6bbd9&amp;vjs=3</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -5760,10 +5760,10 @@
         </is>
       </c>
       <c r="J110" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K110" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="111">
@@ -5771,26 +5771,26 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Optical Stylist, South Beach, Miami, FL</t>
+          <t>Lead Product Designer</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>SEE Eyewear</t>
+          <t>Softvision</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>SEE Eyewear is addicted to uncovering hidden gems-and not just within our product assortment.Keep up to date on SEE Product Knowledge and share it with every…</t>
+          <t>Engage in the client’s product vision by researching, conceiving, sketching, prototyping and user-testing experiences for digital products.</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Miami Beach, FL 33139</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=15b0e366e1d30191&amp;fccid=934f3ebc23a9b17c&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=01ea2a27dc785c21&amp;fccid=bc6d68ab22143afb&amp;vjs=3</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -5809,10 +5809,10 @@
         </is>
       </c>
       <c r="J111" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K111" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="112">
@@ -5820,7 +5820,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -5844,7 +5844,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t xml:space="preserve">Today·Save </t>
+          <t>2 days ago·</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5858,10 +5858,10 @@
         </is>
       </c>
       <c r="J112" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K112" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="113">
@@ -5869,36 +5869,36 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Lead UX Designer</t>
+          <t>Special Event Designer (Corporate)- Boca By Design</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>SoftVision - North America &amp; UK</t>
+          <t>Waldorf Astoria Hotels &amp; Resorts</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Engage in the client’s product vision by researching, conceiving, sketching, prototyping and user-testing experiences for digital products.</t>
+          <t>Follow up with Purchasing Agent and Vendors concerned with specific product needed for proposals.The Boca by Design Team is seeking a Special Event Designer!</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Miami, FL 33132 (Downtown area)</t>
+          <t>Boca Raton, FL 33432</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>7 days ago·</t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=88df77378b4b1885&amp;fccid=df18c67b03f6bbd9&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=a82fa8faff71ce53&amp;fccid=55e068e3b5b21a45&amp;vjs=3</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -5907,10 +5907,10 @@
         </is>
       </c>
       <c r="J113" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K113" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="114">
@@ -5918,36 +5918,36 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Lead UX Designer</t>
+          <t>eCommerce Project Manager</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Softvision</t>
+          <t>OnPoint</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Engage in the client’s product vision by researching, conceiving, sketching, prototyping and user-testing experiences for digital products.</t>
+          <t>Coordinate that all domains deliver valuable products to the customers (guides, added value products, agency services).</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Miami, FL 33169</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>7 days ago·</t>
+          <t>4 days ago·</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=821a32dbbdeb138d&amp;fccid=bc6d68ab22143afb&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=60953bd9c307b325&amp;fccid=8524d30bbfaa4720&amp;vjs=3</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -5956,10 +5956,10 @@
         </is>
       </c>
       <c r="J114" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K114" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="115">
@@ -5967,36 +5967,36 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>eCommerce Project Manager</t>
+          <t>Luxury Brand Commission Sales Professional - New View Women'...</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>OnPoint</t>
+          <t>Bloomingdale's</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Coordinate that all domains deliver valuable products to the customers (guides, added value products, agency services).</t>
+          <t>Demonstrate knowledge of store products and services to build sales and loyalty.Like no other store in the world seeks a Luxury Brand Selling Specialist.</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Miami, FL 33169</t>
+          <t>Aventura, FL 33180</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>2 days ago·</t>
+          <t>3 days ago·</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=60953bd9c307b325&amp;fccid=8524d30bbfaa4720&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=f7cc5f77b62db329&amp;fccid=5e6dd49bdb583f94&amp;vjs=3</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -6005,10 +6005,10 @@
         </is>
       </c>
       <c r="J115" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K115" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="116">
@@ -6016,36 +6016,36 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Part-time Vintage Luxury Consultant (LV, Gucci, Chanel)</t>
+          <t>Creative Technologies Manager</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Stein Mart</t>
+          <t>Chewy</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>In this position you will promote a high-performance selling culture by inspiring customers and creating new stories and new life in each product.</t>
+          <t>Assistant Editors, Editors, Motion Graphics Designers, Audio Engineers, Colorists, and Coordinators.Primary systems administrator and Studio product owner for…</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Boca Raton, FL 33434</t>
+          <t>Fort Lauderdale, FL 33316 (Harbordale area)</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>6 days ago·</t>
+          <t>Just posted</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=8a0667720a3d7d4c&amp;fccid=30b812250949682b&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=adf45217672594aa&amp;fccid=b6add0e6a71f1008&amp;vjs=3</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -6054,10 +6054,10 @@
         </is>
       </c>
       <c r="J116" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K116" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="117">
@@ -6065,21 +6065,21 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Luxury Brand Commission Sales Professional - New View Women'...</t>
+          <t>Tailor, Full Time- Aventura, FL</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Bloomingdale's</t>
+          <t>Brooks Brothers Group, Inc</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Expert on product knowledge, understanding features and benefits and sharing with clients.Demonstrate knowledge of store products and services to build sales…</t>
+          <t>Tailor our luxurious products to our client’s specifications on state of the art equipment.Minimum of 5 years of store tailoring experience, preferably in…</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6089,12 +6089,12 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Macy's·2 da</t>
+          <t>4 days ago·</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=f7cc5f77b62db329&amp;fccid=5e6dd49bdb583f94&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=c4c766b3be284f53&amp;fccid=22459122a7f9293e&amp;vjs=3</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -6103,10 +6103,10 @@
         </is>
       </c>
       <c r="J117" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K117" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="118">
@@ -6114,36 +6114,36 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Senior Industrial Designer</t>
+          <t>UX Designer</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Motorola Solutions</t>
+          <t>ThrottleWeb</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Collaborate with senior designers and mentors across disciplines.Our primary customer base includes Public Safety, Enterprise, and Business- products include…</t>
+          <t>Facilitate user interviews, field research, joint application design (JAD) sessions, focus groups, and usability tests to ensure that user input is gathered…</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Plantation, FL</t>
+          <t>Hallandale Beach, FL</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=9e5451092f6309ea&amp;fccid=22ec6ef3cc441ac2&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=b3d99658f764fc98&amp;fccid=47890e5bc77c84e4&amp;vjs=3</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -6152,10 +6152,10 @@
         </is>
       </c>
       <c r="J118" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K118" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="119">
@@ -6163,36 +6163,36 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Tailor, Full Time- Aventura, FL</t>
+          <t>ARRC Coordinator</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Brooks Brothers Group, Inc</t>
+          <t>The TJX Companies, Inc.</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Tailor our luxurious products to our client’s specifications on state of the art equipment.Minimum of 5 years of store tailoring experience, preferably in…</t>
+          <t>From designers straight off the runway to statement jewelry, we offer exciting surprises that make the everyday a little more fun.</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Aventura, FL 33180</t>
+          <t>Doral, FL</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>2 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=c4c766b3be284f53&amp;fccid=22459122a7f9293e&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=681544049b3de7db&amp;fccid=56f3f08c4fc3ba79&amp;vjs=3</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -6201,10 +6201,10 @@
         </is>
       </c>
       <c r="J119" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K119" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="120">
@@ -6212,36 +6212,36 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Copywriter</t>
+          <t>Designer II Part Time Sales Associate - Draw Vs Commission</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Miami Marlins</t>
+          <t>Neiman Marcus</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Work with designers, illustrators, printers, photographers and production team to complete campaigns.The copywriter will execute against strategies using his…</t>
+          <t>Recommends merchandise based on expert product knowledge and client preferences, regardless of department or channel.Cultivate and grow client base.</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Miami, FL 33125 (Flagami area)</t>
+          <t>Fort Lauderdale, FL</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=0417c79162ce5d45&amp;fccid=ca039b2a955ffd3f&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=1a71eed80b29b50e&amp;fccid=7a11eee3ff8b533d&amp;vjs=3</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -6250,10 +6250,10 @@
         </is>
       </c>
       <c r="J120" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K120" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="121">
@@ -6261,36 +6261,36 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Junior Graphic Designer</t>
+          <t>Instructional Designer</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Holiday Diver Inc</t>
+          <t>University of Miami</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>This role may expand to include product photography, Amazon SEO, content writing, and video editing.The Graphic Designer is responsible for developing the…</t>
+          <t>Visualizes instructional graphics, the user interface and the finished product.Works with subject matter experts, conducts needs assessments and analysis to…</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Dania Beach, FL</t>
+          <t>Coral Gables, FL</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=16cde9f2f47ae3d4&amp;fccid=5df23702b8e32442&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=3291e696df7e6396&amp;fccid=ec40e650131b4ee3&amp;vjs=3</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -6299,10 +6299,10 @@
         </is>
       </c>
       <c r="J121" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K121" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="122">
@@ -6310,36 +6310,36 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Marketing Associate - Digital Focus</t>
+          <t>Retail Field Trainer</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Kalorik</t>
+          <t>Sally Beauty Holdings</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Proficient in Microsoft Office products and other databases.Support team with product, pricing and competitor research as necessary.</t>
+          <t>Models effective customer service behavior that develops the team to help customers make decisions about products.Ability to travel as needed (up to 90%).</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Miami Gardens, FL 33169</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>2 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=b8a3716988c24be9&amp;fccid=b1884a48dc6ddf96&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=7e887fa656d509e5&amp;fccid=1bd4e638720fd660&amp;vjs=3</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -6348,10 +6348,10 @@
         </is>
       </c>
       <c r="J122" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K122" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="123">
@@ -6359,36 +6359,36 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Jr. Marketing Graphic Designer</t>
+          <t>Copywriter</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>SmartProcure-GovSpend</t>
+          <t>Miami Marlins</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>The Junior Marketing Graphic Designer will primarily be responsible for editing and redesigning graphics, working with our sales team, creating marketing…</t>
+          <t>Work with designers, illustrators, printers, photographers and production team to complete campaigns.Create thoughtful, personalized, and brand-relevant copy…</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Deerfield Beach, FL 33441</t>
+          <t>Miami, FL 33125 (Flagami area)</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=138e8ca63c752259&amp;fccid=3e7cb066ac438b70&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=0417c79162ce5d45&amp;fccid=ca039b2a955ffd3f&amp;vjs=3</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -6397,10 +6397,10 @@
         </is>
       </c>
       <c r="J123" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K123" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="124">
@@ -6408,36 +6408,36 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Mechanical Engineer</t>
+          <t>Marketing Associate - Digital Focus</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Ford Motor Company</t>
+          <t>Kalorik</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>2+ years of experience in a product design environment.Perform Mechanical and Environmental Validation Testing on products under development.</t>
+          <t>Support team with product, pricing and competitor research as necessary.Maintain Kalorik website content, listing new products and content (i.e., recipes).</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Sunrise, FL</t>
+          <t>Miami Gardens, FL 33169</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>4 days ago·</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=55e09c7f933ec2d4&amp;fccid=761c44c17d636bfe&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=b8a3716988c24be9&amp;fccid=b1884a48dc6ddf96&amp;vjs=3</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -6446,10 +6446,10 @@
         </is>
       </c>
       <c r="J124" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K124" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="125">
@@ -6457,36 +6457,36 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Instructional Designer</t>
+          <t>Junior Graphic Designer</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>University of Miami</t>
+          <t>Holiday Diver Inc</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>States instructional end goals and creates content that matches them Visualizes instructional graphics, the user interface and the finished product.</t>
+          <t>This role may expand to include product photography, Amazon SEO, content writing, and video editing.The Graphic Designer is responsible for developing the…</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Coral Gables, FL</t>
+          <t>Dania Beach, FL</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>5 days ago·</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=33185f8fa9a572bf&amp;fccid=ec40e650131b4ee3&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=16cde9f2f47ae3d4&amp;fccid=5df23702b8e32442&amp;vjs=3</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -6495,10 +6495,10 @@
         </is>
       </c>
       <c r="J125" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K125" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="126">
@@ -6506,36 +6506,36 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Lead, Copywriter + Content</t>
+          <t>Part Time Designer Handbag Sales Associate - Draw Vs Commiss...</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Celebrity Cruises, Inc.</t>
+          <t>Neiman Marcus</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Clear and concise communication, commitment to producing quality product;Partners with Graphic Designer on a daily basis to ensure design and copy complement…</t>
+          <t>Recommends merchandise based on expert product knowledge and client preferences, regardless of department or channel.Cultivate and grow client base.</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Fort Lauderdale, FL</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Royal Carib</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=025d025c19e1aa45&amp;fccid=d0c4da8d25baf0bd&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=c0ee19ab6466e512&amp;fccid=7a11eee3ff8b533d&amp;vjs=3</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -6544,10 +6544,10 @@
         </is>
       </c>
       <c r="J126" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K126" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="127">
@@ -6555,36 +6555,36 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Merchandise Associate</t>
+          <t>Information Architect</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>The TJX Companies, Inc.</t>
+          <t>Interval International</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>From designers straight off the runway to statement jewelry, we offer exciting surprises that make the everyday a little more fun.</t>
+          <t>Work with internal team to continually refine and update interactive products.Exceptional verbal and written communication skills and must be able to…</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Fort Lauderdale, FL</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=ba303f072b164464&amp;fccid=56f3f08c4fc3ba79&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=ce0bf89fa2cdb4ac&amp;fccid=6e1474abb3491689&amp;vjs=3</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -6593,10 +6593,10 @@
         </is>
       </c>
       <c r="J127" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K127" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="128">
@@ -6604,26 +6604,26 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Territory Sales Representative - Wood Coatings Specialist, D...</t>
+          <t>Product Developer Apprenticeship</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Richelieu Hardware</t>
+          <t>T R I M</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>You will successfully manage the sales of Richelieu’s Wood Finishing product solutions (paints, stains, lacquers, abrasives, etc.).What We Are Looking For.</t>
+          <t>Apprentices receive hands-on training, work side-by-side with T R I M engineers and product designers, and gain experience in all aspects of agile software…</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Fort Lauderdale, FL</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -6633,7 +6633,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=e5f6c489c0183bcf&amp;fccid=c2747b3891936d1b&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=2eee9518e5c2c461&amp;fccid=ac03badfdc09d467&amp;vjs=3</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -6642,10 +6642,10 @@
         </is>
       </c>
       <c r="J128" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K128" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="129">
@@ -6653,36 +6653,36 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Kids Bible App Digital Content Project Manager</t>
+          <t>Merchandise Associate</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>OneHope, Inc</t>
+          <t>The TJX Companies, Inc.</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>OneHope's Product Development team designs products that engage children and youth around the world with Scripture.Vice President of Product Development.</t>
+          <t>From designers straight off the runway to statement jewelry, we offer exciting surprises that make the everyday a little more fun.</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Pompano Beach, FL 33060</t>
+          <t>+1 location</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>6 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=8664f41ef4002187&amp;fccid=0add057d030238a3&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=fbb128083d2baeeb&amp;fccid=56f3f08c4fc3ba79&amp;vjs=3</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -6691,10 +6691,10 @@
         </is>
       </c>
       <c r="J129" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K129" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="130">
@@ -6702,36 +6702,36 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Senior Marketing Manager</t>
+          <t>Sr. Producer</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>St Thomas University</t>
+          <t>Univision communications inc</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Oversee the creation, design and execution of all graphic design and content marketing materials in-house for website, industry media, social media,…</t>
+          <t>Know our audience, our product, and how to bridge them.Skilled Graphic Designer / Must master After Effects and other Adobe Creative Cloud apps.</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Miami Gardens, FL 33054</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>2 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=2d39ef984ccff422&amp;fccid=ac5f41cdab296eb6&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=e24c8b2cb1b04074&amp;fccid=a94ccb35abbf24d8&amp;vjs=3</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -6740,10 +6740,10 @@
         </is>
       </c>
       <c r="J130" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K130" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="131">
@@ -6751,36 +6751,36 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Marketing Associate</t>
+          <t>Mechanical Engineer</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Liberty Power</t>
+          <t>Ford Motor Company</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Manage relationships with outside graphic designers to ensure deliverables are on brand, meet quality standards and are delivered on time within budget.</t>
+          <t>2+ years of experience in a product design environment.Perform Mechanical and Environmental Validation Testing on products under development.</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Fort Lauderdale, FL 33309</t>
+          <t>Sunrise, FL</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>4 days ago·</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=c48bce5f54280a20&amp;fccid=a8a6c6063f6af40d&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=55e09c7f933ec2d4&amp;fccid=761c44c17d636bfe&amp;vjs=3</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -6789,10 +6789,10 @@
         </is>
       </c>
       <c r="J131" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K131" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="132">
@@ -6800,36 +6800,36 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Apprenticeship</t>
+          <t>Lead, Copywriter + Content</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>T R I M</t>
+          <t>Celebrity Cruises, Inc.</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Apprentices receive hands-on training, work side-by-side with T R I M engineers and product designers, and gain experience in all aspects of agile software…</t>
+          <t>Clear and concise communication, commitment to producing quality product;Partners with Graphic Designer on a daily basis to ensure design and copy complement…</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Fort Lauderdale, FL</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>6 days ago·</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=2eee9518e5c2c461&amp;fccid=ac03badfdc09d467&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=025d025c19e1aa45&amp;fccid=d0c4da8d25baf0bd&amp;vjs=3</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -6838,10 +6838,10 @@
         </is>
       </c>
       <c r="J132" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K132" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="133">
@@ -6849,36 +6849,36 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>TECHNICAL WRITER</t>
+          <t>Multimedia Producer</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Sonnys Enterprises Inc</t>
+          <t>Univision communications inc</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Collects and interprets technical data or information from customers, designers and manufacturers.Contribute to the definition of tasks and required resources…</t>
+          <t>Work closely with editors, graphic artists and sound designers to ensure that final product is executed flawlessly.Strong attention to detail is a must.</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Tamarac, FL 33321</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>6 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=e51a47eed38d83d1&amp;fccid=4d2d77ca55e4a7eb&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=260c04f3f1eedc93&amp;fccid=a94ccb35abbf24d8&amp;vjs=3</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -6887,10 +6887,10 @@
         </is>
       </c>
       <c r="J133" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K133" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="134">
@@ -6898,36 +6898,36 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Assoc Store Mgr NE NC</t>
+          <t>Lead Installer, Magnolia Custom</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Intermix</t>
+          <t>Best Buy</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>We’re all about delighting our customers by helping them to discover trends, designers and notably special pieces.Provide clear feedback and regular coaching.</t>
+          <t>You will need to meet the Magnolia standard of excellence in device mounting, cable management, power management and functionality of audio products.</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Boca Raton, FL 33481</t>
+          <t>Boca Raton, FL 33498</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gap Inc.·3 </t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=e065b27e9caa144c&amp;fccid=0d9e0f3b0c8f3c5a&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=41a2acce13813002&amp;fccid=027d7cca25a5d14f&amp;vjs=3</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -6936,10 +6936,10 @@
         </is>
       </c>
       <c r="J134" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K134" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="135">
@@ -6947,36 +6947,36 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Store Manager, Miami</t>
+          <t>WAREHOUSE ASSOCIATE</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>OTB</t>
+          <t>Emser Tile</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Maison Margiela is a Paris-based fashion house founded in 1988 by Belgian designer Martin Margiela.Conduct daily/weekly/monthly analysis of business and…</t>
+          <t>Cut and place product materials to create displays that accurately represent product variation.Ability to accurately count/track product that is being received…</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Miami Beach, FL</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>6 days ago·</t>
+          <t xml:space="preserve">Today·Save </t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=f57caed0e7c2f6b7&amp;fccid=7a6f24c0980e860f&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=78180f6ef1662d6b&amp;fccid=badbfaf432b3c56c&amp;vjs=3</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -6985,10 +6985,10 @@
         </is>
       </c>
       <c r="J135" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K135" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="136">
@@ -6996,36 +6996,36 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Sr. Email Designer</t>
+          <t>Senior Marketing Manager</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Office Depot OfficeMax</t>
+          <t>St Thomas University</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Onboard new designers and introduce new Analysts to design process.We’re looking for a Senior Designer with strong production skills who understands the world…</t>
+          <t>Oversee the creation, design and execution of all graphic design and content marketing materials in-house for website, industry media, social media,…</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Boca Raton, FL 33496</t>
+          <t>Miami Gardens, FL 33054</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Just posted</t>
+          <t>4 days ago·</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=31c01dd3012a3df6&amp;fccid=31ca68f7796cd983&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=2d39ef984ccff422&amp;fccid=ac5f41cdab296eb6&amp;vjs=3</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -7034,10 +7034,10 @@
         </is>
       </c>
       <c r="J136" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K136" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="137">
@@ -7045,26 +7045,26 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Client Administrative Support</t>
+          <t>Marketing Associate</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Sixt Rent a Car, LLC.</t>
+          <t>Liberty Power</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Serve as an expert in our products and services.Must be willing to wear company uniforms…they’re actually designer clothes!What you’ll do to be sixt-cessful:</t>
+          <t>Manage relationships with outside graphic designers to ensure deliverables are on brand, meet quality standards and are delivered on time within budget.</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Fort Lauderdale, FL 33316 (Harbordale area)</t>
+          <t>Fort Lauderdale, FL 33309</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -7074,7 +7074,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=3380e4b9927bc9e6&amp;fccid=fa1d1e8b4e65c70a&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=c48bce5f54280a20&amp;fccid=a8a6c6063f6af40d&amp;vjs=3</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -7083,10 +7083,10 @@
         </is>
       </c>
       <c r="J137" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K137" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="138">
@@ -7094,36 +7094,36 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Software Developer</t>
+          <t>Sr. Email Designer</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Selmer Demo</t>
+          <t>Office Depot OfficeMax</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Working closely with other developers, UX designers, business and systems analysts.A Java, C#, .Net, C, Sybase and Oracle Software Developer is generally…</t>
+          <t>Onboard new designers and introduce new Analysts to design process.We’re looking for a Senior Designer with strong production skills who understands the world…</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Fort Lauderdale, FL</t>
+          <t>Boca Raton, FL 33496</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>3 days ago·</t>
+          <t>1 day ago·S</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=b4a4119579df4ad5&amp;fccid=7abf1052483dbe25&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=31c01dd3012a3df6&amp;fccid=31ca68f7796cd983&amp;vjs=3</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -7132,10 +7132,10 @@
         </is>
       </c>
       <c r="J138" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K138" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="139">
@@ -7143,36 +7143,36 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Embedded Software/System Engineer</t>
+          <t>Assoc Store Mgr NE NC</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Astronics</t>
+          <t>Intermix</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Assist other engineers and designers to successfully complete design and certification (if applicable) of commercial and government products.</t>
+          <t>We’re all about delighting our customers by helping them to discover trends, designers and notably special pieces.Provide clear feedback and regular coaching.</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Fort Lauderdale, FL 33309</t>
+          <t>Boca Raton, FL 33481</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>4 days ago·</t>
+          <t>5 days ago·</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=7fd9ae60545c5afb&amp;fccid=0760d41f7a3c4154&amp;vjs=3</t>
+          <t>https://www.indeed.com/viewjob?jk=e065b27e9caa144c&amp;fccid=0d9e0f3b0c8f3c5a&amp;vjs=3</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -7181,10 +7181,10 @@
         </is>
       </c>
       <c r="J139" s="2" t="n">
-        <v>43794</v>
+        <v>43796</v>
       </c>
       <c r="K139" s="3" t="n">
-        <v>43794.71821801017</v>
+        <v>43796.53722255256</v>
       </c>
     </row>
     <row r="140">
@@ -7192,48 +7192,1812 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Senior Transportation Project Manager</t>
+          <t>AUTOMATED TEST EQUIPMENT SALES MANAGER</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>WSP USA</t>
+          <t>CHROMA SYSTEMS SOLUTIONS INC</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Roadway design experience or experience working closely with civil designers.Supervise, lead, and mentor mid-level and Junior staff -Lead teams of WSP staff…</t>
+          <t>Identifying trends, threats and opportunities for product improvement.Is a leading designer and manufacturer of power testing instruments and systems including…</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
+          <t>Miami, FL 33101 (Overtown area)</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>1 day ago·S</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=39135e3e238bf962&amp;fccid=3393d664c9d37b5f&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>Product Designer</t>
+        </is>
+      </c>
+      <c r="J140" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K140" s="3" t="n">
+        <v>43796.53722255256</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Embedded Software/System Engineer</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Astronics</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Assist other engineers and designers to successfully complete design and certification (if applicable) of commercial and government products.</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Fort Lauderdale, FL 33309</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>6 days ago·</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=7fd9ae60545c5afb&amp;fccid=0760d41f7a3c4154&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>Product Designer</t>
+        </is>
+      </c>
+      <c r="J141" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K141" s="3" t="n">
+        <v>43796.53722255256</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Back-End Engineer</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>T R I M</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>T R I M Agency is seeking a Backend Engineer to join our startup studio.The ideal candidate will not only love to code, but love to see companies grow from…</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Fort Lauderdale, FL</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Today·Save </t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=f06b9fa71264d3f8&amp;fccid=ac03badfdc09d467&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>Product Designer</t>
+        </is>
+      </c>
+      <c r="J142" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K142" s="3" t="n">
+        <v>43796.53722255256</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>2</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Sr. Instrumentation &amp; Controls Engineer - Water</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Stantec</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>The I&amp;C Engineer will work independently on projects, and lead a team of engineers and designers acting as a Discipline Lead for larger or more complex projects…</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Deerfield Beach, FL 33443</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>5 days ago·</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=ff1af6e37ebf51fe&amp;fccid=f1582c464db8553b&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>Product Designer</t>
+        </is>
+      </c>
+      <c r="J143" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K143" s="3" t="n">
+        <v>43796.53722255256</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Special Event Designer (Corporate)- Boca By Design</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Waldorf Astoria Hotels &amp; Resorts</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Follow up with Purchasing Agent and Vendors concerned with specific product needed for proposals.What will I be Doing?Respond to RFP’s in a timely manner.</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Boca Raton, FL 33432</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>5 days ago·</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=a82fa8faff71ce53&amp;fccid=55e068e3b5b21a45&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>Product Designer</t>
+        </is>
+      </c>
+      <c r="J144" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K144" s="3" t="n">
+        <v>43796.53722255256</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Product Designer</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>CBS</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>CBS Sports is seeking a talented Product Designer that is local to NYC, SF, TN or Fort Lauderdale, FL.Desire or experience collaborating, iterating, and…</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Fort Lauderdale, FL 33313</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>6 days ago·</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=dfbb7e67a595b260&amp;fccid=39985237a7b0e241&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>Product Designer</t>
+        </is>
+      </c>
+      <c r="J145" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K145" s="3" t="n">
+        <v>43796.53722255256</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>2</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Lead Product Designer</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Softvision</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Engage in the client’s product vision by researching, conceiving, sketching, prototyping and user-testing experiences for digital products.</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
           <t>Miami, FL</t>
         </is>
       </c>
-      <c r="G140" t="inlineStr">
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>6 days ago·</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=01ea2a27dc785c21&amp;fccid=bc6d68ab22143afb&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>Product Designer</t>
+        </is>
+      </c>
+      <c r="J146" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K146" s="3" t="n">
+        <v>43796.53722255256</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>3</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Lead Product Designer</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>SoftVision - North America &amp; UK</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Engage in the client’s product vision by researching, conceiving, sketching, prototyping and user-testing experiences for digital products.</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Miami, FL 33132 (Downtown area)</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>6 days ago·</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=53d062bbe12e6df4&amp;fccid=df18c67b03f6bbd9&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>Product Designer</t>
+        </is>
+      </c>
+      <c r="J147" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K147" s="3" t="n">
+        <v>43796.53722255256</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>4</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Instructional Designer</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>University of Miami</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Works with subject matter experts, conducts needs assessments and analysis to identify new development needs for a target audience.</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Coral Gables, FL</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Today·Save </t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=3291e696df7e6396&amp;fccid=ec40e650131b4ee3&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>Product Designer</t>
+        </is>
+      </c>
+      <c r="J148" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K148" s="3" t="n">
+        <v>43796.53722255256</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>5</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Copywriter</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Miami Marlins</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>The copywriter will execute against strategies using his or her exceptional talents to connect our brand/products with fans.Thrive in a fast-paced environment.</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Miami, FL 33125 (Flagami area)</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>6 days ago·</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=0417c79162ce5d45&amp;fccid=ca039b2a955ffd3f&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>Product Designer</t>
+        </is>
+      </c>
+      <c r="J149" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K149" s="3" t="n">
+        <v>43796.53722255256</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>6</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>WAREHOUSE ASSOCIATE</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Emser Tile</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Cut and place product materials to create displays that accurately represent product variation.Ability to accurately count/track product that is being received…</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Miami, FL</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Today·Save </t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=78180f6ef1662d6b&amp;fccid=badbfaf432b3c56c&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>Product Designer</t>
+        </is>
+      </c>
+      <c r="J150" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K150" s="3" t="n">
+        <v>43796.53722255256</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>7</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Retail Field Trainer</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Sally Beauty Holdings</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Enthusiasm for the beauty industry and its products.Provides leadership and coaching in product knowledge/operations/business acumen and business specific…</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Miami, FL</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Today·Save </t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=7e887fa656d509e5&amp;fccid=1bd4e638720fd660&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>Product Designer</t>
+        </is>
+      </c>
+      <c r="J151" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K151" s="3" t="n">
+        <v>43796.53722255256</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>8</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Multimedia Producer</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Univision communications inc</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Work closely with editors, graphic artists and sound designers to ensure that final product is executed flawlessly.Strong attention to detail is a must.</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Miami, FL</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Today·Save </t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=260c04f3f1eedc93&amp;fccid=a94ccb35abbf24d8&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>Product Designer</t>
+        </is>
+      </c>
+      <c r="J152" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K152" s="3" t="n">
+        <v>43796.53722255256</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>9</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Magnolia Design Center System Designer</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Best Buy</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>The System Designer builds and manages relationships with builders, architects, interior designers and local Best Buy stores.High School Diploma or equivalent.</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Miami, FL 33143</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>2 days ago·</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=17c5e1e6f139da46&amp;fccid=027d7cca25a5d14f&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>Product Designer</t>
+        </is>
+      </c>
+      <c r="J153" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K153" s="3" t="n">
+        <v>43796.53722255256</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>10</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>UX Designer</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>ThrottleWeb</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Work as a design lead on projects and will be expected to act as the user advocate throughout the product development lifecycle.</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Hallandale Beach, FL</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>1 day ago·S</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=b3d99658f764fc98&amp;fccid=47890e5bc77c84e4&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>Product Designer</t>
+        </is>
+      </c>
+      <c r="J154" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K154" s="3" t="n">
+        <v>43796.53722255256</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>11</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Information Architect</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Interval International</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Work with internal team to continually refine and update interactive products.Exceptional verbal and written communication skills and must be able to…</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Miami, FL</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Today·Save </t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=ce0bf89fa2cdb4ac&amp;fccid=6e1474abb3491689&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>Product Designer</t>
+        </is>
+      </c>
+      <c r="J155" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K155" s="3" t="n">
+        <v>43796.53722255256</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>12</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Marketing Associate - Digital Focus</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Kalorik</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Proficient in Microsoft Office products and other databases.Support team with product, pricing and competitor research as necessary.</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Miami Gardens, FL 33169</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>4 days ago·</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=b8a3716988c24be9&amp;fccid=b1884a48dc6ddf96&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>Product Designer</t>
+        </is>
+      </c>
+      <c r="J156" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K156" s="3" t="n">
+        <v>43796.53722255256</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>13</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>eCommerce Project Manager</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>OnPoint</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Coordinate that all domains deliver valuable products to the customers (guides, added value products, agency services).</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Miami, FL 33169</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>4 days ago·</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=60953bd9c307b325&amp;fccid=8524d30bbfaa4720&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>Product Designer</t>
+        </is>
+      </c>
+      <c r="J157" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K157" s="3" t="n">
+        <v>43796.53722255256</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>14</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Creative Technologies Manager</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Chewy</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Chewy is seeking a talented, proactive Creative Technologies Manager to join our in-house video production studio located in Dania Beach, FL.</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Fort Lauderdale, FL 33316 (Harbordale area)</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Just posted</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=adf45217672594aa&amp;fccid=b6add0e6a71f1008&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>Product Designer</t>
+        </is>
+      </c>
+      <c r="J158" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K158" s="3" t="n">
+        <v>43796.53722255256</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>15</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Client Administrative Support</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Sixt Rent a Car, LLC.</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Serve as an expert in our products and services.Must be willing to wear company uniforms…they’re actually designer clothes!What you’ll do to be sixt-cessful:</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Fort Lauderdale, FL 33316 (Harbordale area)</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>7 days ago·</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=3380e4b9927bc9e6&amp;fccid=fa1d1e8b4e65c70a&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>Product Designer</t>
+        </is>
+      </c>
+      <c r="J159" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K159" s="3" t="n">
+        <v>43796.53722255256</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>16</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>ARRC Coordinator</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>The TJX Companies, Inc.</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Posting Notes: TJ Maxx Store 4106 || 2100 NW 97th AVE || Doral || FL || 33172.Maintains processing and storage areas, equipment and supplies.</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Doral, FL</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Today·Save </t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=681544049b3de7db&amp;fccid=56f3f08c4fc3ba79&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>Product Designer</t>
+        </is>
+      </c>
+      <c r="J160" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K160" s="3" t="n">
+        <v>43796.53722255256</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>17</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Junior Graphic Designer</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Holiday Diver Inc</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>This role may expand to include product photography, Amazon SEO, content writing, and video editing.The Graphic Designer is responsible for developing the…</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Dania Beach, FL</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>6 days ago·</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=16cde9f2f47ae3d4&amp;fccid=5df23702b8e32442&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>Product Designer</t>
+        </is>
+      </c>
+      <c r="J161" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K161" s="3" t="n">
+        <v>43796.53722255256</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>18</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Merchandise Associate</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>The TJX Companies, Inc.</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Posting Notes: TJ Maxx Store 1340 || 1920 Cordova Road || Fort Lauderdale || FL || 33316.Responsible for delivering a highly satisfied customer experience…</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>+1 location</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
         <is>
           <t>5 days ago·</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=0efb4df38d92e1ad&amp;fccid=0c9fc109eb8096e4&amp;vjs=3</t>
-        </is>
-      </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>Product Designer</t>
-        </is>
-      </c>
-      <c r="J140" s="2" t="n">
-        <v>43794</v>
-      </c>
-      <c r="K140" s="3" t="n">
-        <v>43794.71821801017</v>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=ba303f072b164464&amp;fccid=56f3f08c4fc3ba79&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>Product Designer</t>
+        </is>
+      </c>
+      <c r="J162" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K162" s="3" t="n">
+        <v>43796.53722255256</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>19</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Sr. Email Designer</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Office Depot OfficeMax</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Onboard new designers and introduce new Analysts to design process.We’re looking for a Senior Designer with strong production skills who understands the world…</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Boca Raton, FL 33496</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>1 day ago·S</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=31c01dd3012a3df6&amp;fccid=31ca68f7796cd983&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>Product Designer</t>
+        </is>
+      </c>
+      <c r="J163" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K163" s="3" t="n">
+        <v>43796.53722255256</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>20</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Sr. Producer</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Univision communications inc</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Know our audience, our product, and how to bridge them.Skilled Graphic Designer / Must master After Effects and other Adobe Creative Cloud apps.</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Miami, FL</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Today·Save </t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=e24c8b2cb1b04074&amp;fccid=a94ccb35abbf24d8&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>Product Designer</t>
+        </is>
+      </c>
+      <c r="J164" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K164" s="3" t="n">
+        <v>43796.53722255256</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>21</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Tailor, Full Time- Aventura, FL</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Brooks Brothers Group, Inc</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Minimum of 5 years of store tailoring experience, preferably in luxury or designer apparel.In this position, you will:</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Aventura, FL 33180</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>4 days ago·</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=c4c766b3be284f53&amp;fccid=22459122a7f9293e&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>Product Designer</t>
+        </is>
+      </c>
+      <c r="J165" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K165" s="3" t="n">
+        <v>43796.53722255256</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>22</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Lead, Copywriter + Content</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Celebrity Cruises, Inc.</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Meticulous attention to detail; clear and concise communication, commitment to producing quality product; deadline conscious.Performs other duties as required.</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Miami, FL</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>6 days ago·</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=025d025c19e1aa45&amp;fccid=d0c4da8d25baf0bd&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>Product Designer</t>
+        </is>
+      </c>
+      <c r="J166" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K166" s="3" t="n">
+        <v>43796.53722255256</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>23</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Marketing Associate</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Liberty Power</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Manage relationships with outside graphic designers to ensure deliverables are on brand, meet quality standards and are delivered on time within budget.</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Fort Lauderdale, FL 33309</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>5 days ago·</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=c48bce5f54280a20&amp;fccid=a8a6c6063f6af40d&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>Product Designer</t>
+        </is>
+      </c>
+      <c r="J167" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K167" s="3" t="n">
+        <v>43796.53722255256</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>24</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Part Time Designer Handbag Sales Associate - Draw Vs Commiss...</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Neiman Marcus</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Recommends merchandise based on expert product knowledge and client preferences, regardless of department or channel.Cultivate and grow client base.</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Fort Lauderdale, FL</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Today·Save </t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=c0ee19ab6466e512&amp;fccid=7a11eee3ff8b533d&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>Product Designer</t>
+        </is>
+      </c>
+      <c r="J168" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K168" s="3" t="n">
+        <v>43796.53722255256</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>25</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Designer II Part Time Sales Associate - Draw Vs Commission</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Neiman Marcus</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Recommends merchandise based on expert product knowledge and client preferences, regardless of department or channel.Cultivate and grow client base.</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Fort Lauderdale, FL</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Today·Save </t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=1a71eed80b29b50e&amp;fccid=7a11eee3ff8b533d&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>Product Designer</t>
+        </is>
+      </c>
+      <c r="J169" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K169" s="3" t="n">
+        <v>43796.53722255256</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>26</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Product Developer Apprenticeship</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>T R I M</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Apprentices receive hands-on training, work side-by-side with T R I M engineers and product designers, and gain experience in all aspects of agile software…</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Fort Lauderdale, FL</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>5 days ago·</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=2eee9518e5c2c461&amp;fccid=ac03badfdc09d467&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>Product Designer</t>
+        </is>
+      </c>
+      <c r="J170" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K170" s="3" t="n">
+        <v>43796.53722255256</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>27</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Luxury Brand Commission Sales Professional - Women's Designe...</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Bloomingdale's</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Expert on product knowledge, understanding features and benefits and sharing with clients.Demonstrate knowledge of store products and services to build sales…</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Aventura, FL 33180</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>4 days ago·</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=e7abb69f419403d3&amp;fccid=5e6dd49bdb583f94&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>Product Designer</t>
+        </is>
+      </c>
+      <c r="J171" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K171" s="3" t="n">
+        <v>43796.53722255256</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>28</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Mechanical Engineer</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Ford Motor Company</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>2+ years of experience in a product design environment.Perform Mechanical and Environmental Validation Testing on products under development.</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Sunrise, FL</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>4 days ago·</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=55e09c7f933ec2d4&amp;fccid=761c44c17d636bfe&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>Product Designer</t>
+        </is>
+      </c>
+      <c r="J172" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K172" s="3" t="n">
+        <v>43796.53722255256</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>29</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Senior Marketing Manager</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>St Thomas University</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Oversee the creation, design and execution of all graphic design and content marketing materials in-house for website, industry media, social media,…</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Miami Gardens, FL 33054</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>4 days ago·</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=2d39ef984ccff422&amp;fccid=ac5f41cdab296eb6&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>Product Designer</t>
+        </is>
+      </c>
+      <c r="J173" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K173" s="3" t="n">
+        <v>43796.53722255256</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>30</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Lead Installer, Magnolia Custom</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Best Buy</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>You will need to meet the Magnolia standard of excellence in device mounting, cable management, power management and functionality of audio products.</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Boca Raton, FL 33498</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>1 day ago·S</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=41a2acce13813002&amp;fccid=027d7cca25a5d14f&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>Product Designer</t>
+        </is>
+      </c>
+      <c r="J174" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K174" s="3" t="n">
+        <v>43796.53722255256</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>31</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>AUTOMATED TEST EQUIPMENT SALES MANAGER</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>CHROMA SYSTEMS SOLUTIONS INC</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Identifying key accounts and market requirements; identifying trends, threats and opportunities for product improvement.Reports To: Director of ATE Sales.</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Miami, FL 33101 (Overtown area)</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>1 day ago·S</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=39135e3e238bf962&amp;fccid=3393d664c9d37b5f&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>Product Designer</t>
+        </is>
+      </c>
+      <c r="J175" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K175" s="3" t="n">
+        <v>43796.53722255256</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>32</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Assoc Store Mgr NE NC</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Intermix</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>A generous merchandise discount on select designers at Intermix and 50% off regular-priced merchandise at Gap, Banana Republic and Old Navy, 30% off at Outlet…</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Boca Raton, FL 33481</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>5 days ago·</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=e065b27e9caa144c&amp;fccid=0d9e0f3b0c8f3c5a&amp;vjs=3</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>Product Designer</t>
+        </is>
+      </c>
+      <c r="J176" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="K176" s="3" t="n">
+        <v>43796.53722255256</v>
       </c>
     </row>
   </sheetData>
